--- a/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
+++ b/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SPRINT 3:</t>
   </si>
@@ -62,6 +62,9 @@
   <si>
     <t>Estória de Usuário: CH:2 ID:11 – Excluir Trabalhos (MATHEUS)</t>
   </si>
+  <si>
+    <t>Estória de Usuário: CH:2 ID:11 – Segurança de Navegação (MATHEUS)</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,6 +159,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,6 +364,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -755,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19320,14 +19333,14 @@
       <c r="AMJ20"/>
     </row>
     <row r="21" spans="1:1024">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -21490,12 +21503,14 @@
       <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="17"/>
       <c r="H27" s="8"/>
       <c r="I27" s="22"/>
@@ -21601,11 +21616,12 @@
       <c r="Y30" s="22"/>
       <c r="Z30" s="23"/>
     </row>
-    <row r="34" spans="5:5" ht="409.6">
+    <row r="34" spans="5:5">
       <c r="E34" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A27:F27"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A13:F13"/>

--- a/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
+++ b/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
@@ -60,10 +60,10 @@
     <t>Estória de Usuário: CH:2 ID:11 – Localizar Profissional (IGOR)</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Excluir Trabalhos (MATHEUS)</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Segurança de Navegação (MATHEUS)</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Segurança de Navegação (MATHEUS)</t>
+    <t>Estória de Usuário: CH:2 ID:11 – Excluir Trabalhos (CAUÊ)</t>
   </si>
 </sst>
 </file>
@@ -162,6 +162,7 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FFFF3333"/>
       <name val="Tahoma"/>
@@ -768,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4897,14 +4898,14 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -6951,14 +6952,14 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024" ht="15" thickBot="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -9005,14 +9006,14 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -11059,14 +11060,14 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="15" thickBot="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -12115,14 +12116,14 @@
       <c r="Z12" s="23"/>
     </row>
     <row r="13" spans="1:1024">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -14169,14 +14170,14 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -17279,14 +17280,14 @@
       <c r="AMJ18"/>
     </row>
     <row r="19" spans="1:1024" ht="15" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="17"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -21387,14 +21388,14 @@
       <c r="AMJ22"/>
     </row>
     <row r="23" spans="1:1024" s="24" customFormat="1" thickBot="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="22"/>
@@ -21445,14 +21446,14 @@
       <c r="Z24" s="23"/>
     </row>
     <row r="25" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A25" s="30" t="s">
-        <v>13</v>
+      <c r="A25" s="31" t="s">
+        <v>14</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="22"/>
@@ -21504,7 +21505,7 @@
     </row>
     <row r="27" spans="1:1024" s="24" customFormat="1" ht="13.5">
       <c r="A27" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -21621,11 +21622,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
@@ -21633,10 +21633,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
+++ b/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>SPRINT 3:</t>
   </si>
@@ -30,31 +30,13 @@
     <t>DATA FIM: 23/06/16</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Fotos dos Usuários (SAMUEL)</t>
-  </si>
-  <si>
     <t>Estória de Usuário: CH:2 ID:11 – Alterar Senha (BRUNO)</t>
   </si>
   <si>
     <t>Estória de Usuário: CH:2 ID:11 – Avaliar Profissional (CAUÊ)</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Listar Minhas Publicações (MATHEUS)</t>
-  </si>
-  <si>
     <t>Estória de Usuário: CH:2 ID:11 – Excluir Publicação (MATHEUS)</t>
-  </si>
-  <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Exlcuir Mensagem (MATHEUS)</t>
-  </si>
-  <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Emitir Relatórios (BRUNO)</t>
-  </si>
-  <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Publicar Trabalhos (SAMUEL)</t>
-  </si>
-  <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Versão Mobile do Site (IGOR)</t>
   </si>
   <si>
     <t>Estória de Usuário: CH:2 ID:11 – Localizar Profissional (IGOR)</t>
@@ -63,17 +45,107 @@
     <t>Estória de Usuário: CH:2 ID:11 – Segurança de Navegação (MATHEUS)</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:2 ID:11 – Excluir Trabalhos (CAUÊ)</t>
+    <t>Estória de Usuário: CH:2 ID:15 – Listar Minhas Publicações (MATHEUS)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Esforço</t>
+  </si>
+  <si>
+    <t>Data início</t>
+  </si>
+  <si>
+    <t>Data Fim</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Dependência</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>Criar tela minhasPublicacoes.xhtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora </t>
+  </si>
+  <si>
+    <t>Criar método listarPublicacoes() no MuralBean</t>
+  </si>
+  <si>
+    <t>Criar método listarPublicacoes(int IdUsuarioQuePublicou) no MuralDAO</t>
+  </si>
+  <si>
+    <t>Listar apenas as publicações do usuário logado</t>
+  </si>
+  <si>
+    <t>Criar tela detalhesPublicacao.xhtml</t>
+  </si>
+  <si>
+    <t>Ao lado de cada publicação um botão para os detalhes da publicacao</t>
+  </si>
+  <si>
+    <t>Com botão de Voltar</t>
+  </si>
+  <si>
+    <t>Incrementar diagrama de  classes</t>
+  </si>
+  <si>
+    <t>Integrar</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Realizar os testes funcionais</t>
+  </si>
+  <si>
+    <t>Criar botão Excluir</t>
+  </si>
+  <si>
+    <t>Para cada publicacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 min </t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>Criar método excluirPublicacao() no MuralBean</t>
+  </si>
+  <si>
+    <t>Criar método excluirPublicacao(int IdUsuarioQuePublicou) no MuralDAO</t>
+  </si>
+  <si>
+    <t>Excluir todas as chaves estrangeiras</t>
+  </si>
+  <si>
+    <t>ESTUDAR</t>
+  </si>
+  <si>
+    <t>2 hora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,21 +165,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -162,9 +219,34 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="10"/>
-      <color rgb="FFFF3333"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans1"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -177,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,11 +360,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,66 +406,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,22 +884,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK34"/>
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.75" style="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="1"/>
     <col min="4" max="4" width="12.625" style="2"/>
     <col min="5" max="5" width="12.875" style="1"/>
-    <col min="6" max="6" width="9.375" style="1"/>
-    <col min="7" max="7" width="23" style="3"/>
-    <col min="8" max="8" width="17.375" style="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
     <col min="9" max="14" width="9.375" style="1"/>
     <col min="15" max="1025" width="7.875" style="1"/>
   </cols>
@@ -3872,12 +3989,12 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024" ht="15" thickBot="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -4897,15 +5014,15 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024">
-      <c r="A5" s="31" t="s">
-        <v>3</v>
+    <row r="5" spans="1:1024" ht="15" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -5926,14 +6043,30 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -5960,17 +6093,17 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
       <c r="AT6"/>
       <c r="AU6"/>
       <c r="AV6"/>
@@ -6952,14 +7085,24 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024" ht="15" thickBot="1">
-      <c r="A7" s="31" t="s">
-        <v>4</v>
+      <c r="A7" s="27">
+        <v>1</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="26">
+        <v>42524</v>
+      </c>
+      <c r="F7" s="26">
+        <v>42524</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -6988,17 +7131,17 @@
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
       <c r="AT7"/>
       <c r="AU7"/>
       <c r="AV7"/>
@@ -7979,14 +8122,28 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="7"/>
+    <row r="8" spans="1:1024" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="26">
+        <v>42525</v>
+      </c>
+      <c r="F8" s="26">
+        <v>42525</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -8014,17 +8171,17 @@
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
       <c r="AT8"/>
       <c r="AU8"/>
       <c r="AV8"/>
@@ -9005,15 +9162,25 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024">
-      <c r="A9" s="31" t="s">
-        <v>5</v>
+    <row r="9" spans="1:1024" ht="15" thickBot="1">
+      <c r="A9" s="27">
+        <v>3</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="26">
+        <v>42527</v>
+      </c>
+      <c r="F9" s="26">
+        <v>42527</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -9042,17 +9209,17 @@
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
       <c r="AT9"/>
       <c r="AU9"/>
       <c r="AV9"/>
@@ -10033,14 +10200,28 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:1024" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A10" s="28">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="26">
+        <v>42527</v>
+      </c>
+      <c r="F10" s="26">
+        <v>42527</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -10068,17 +10249,17 @@
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="24"/>
       <c r="AT10"/>
       <c r="AU10"/>
       <c r="AV10"/>
@@ -11060,15 +11241,27 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="15" thickBot="1">
-      <c r="A11" s="31" t="s">
-        <v>12</v>
+      <c r="A11" s="27">
+        <v>5</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="26">
+        <v>42528</v>
+      </c>
+      <c r="F11" s="26">
+        <v>42528</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -11096,17 +11289,17 @@
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
       <c r="AT11"/>
       <c r="AU11"/>
       <c r="AV11"/>
@@ -12087,2097 +12280,118 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1" ht="15" thickBot="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="23"/>
-    </row>
-    <row r="13" spans="1:1024">
-      <c r="A13" s="31" t="s">
+    <row r="12" spans="1:1024" s="17" customFormat="1" ht="15" thickBot="1">
+      <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
-      <c r="AZ13"/>
-      <c r="BA13"/>
-      <c r="BB13"/>
-      <c r="BC13"/>
-      <c r="BD13"/>
-      <c r="BE13"/>
-      <c r="BF13"/>
-      <c r="BG13"/>
-      <c r="BH13"/>
-      <c r="BI13"/>
-      <c r="BJ13"/>
-      <c r="BK13"/>
-      <c r="BL13"/>
-      <c r="BM13"/>
-      <c r="BN13"/>
-      <c r="BO13"/>
-      <c r="BP13"/>
-      <c r="BQ13"/>
-      <c r="BR13"/>
-      <c r="BS13"/>
-      <c r="BT13"/>
-      <c r="BU13"/>
-      <c r="BV13"/>
-      <c r="BW13"/>
-      <c r="BX13"/>
-      <c r="BY13"/>
-      <c r="BZ13"/>
-      <c r="CA13"/>
-      <c r="CB13"/>
-      <c r="CC13"/>
-      <c r="CD13"/>
-      <c r="CE13"/>
-      <c r="CF13"/>
-      <c r="CG13"/>
-      <c r="CH13"/>
-      <c r="CI13"/>
-      <c r="CJ13"/>
-      <c r="CK13"/>
-      <c r="CL13"/>
-      <c r="CM13"/>
-      <c r="CN13"/>
-      <c r="CO13"/>
-      <c r="CP13"/>
-      <c r="CQ13"/>
-      <c r="CR13"/>
-      <c r="CS13"/>
-      <c r="CT13"/>
-      <c r="CU13"/>
-      <c r="CV13"/>
-      <c r="CW13"/>
-      <c r="CX13"/>
-      <c r="CY13"/>
-      <c r="CZ13"/>
-      <c r="DA13"/>
-      <c r="DB13"/>
-      <c r="DC13"/>
-      <c r="DD13"/>
-      <c r="DE13"/>
-      <c r="DF13"/>
-      <c r="DG13"/>
-      <c r="DH13"/>
-      <c r="DI13"/>
-      <c r="DJ13"/>
-      <c r="DK13"/>
-      <c r="DL13"/>
-      <c r="DM13"/>
-      <c r="DN13"/>
-      <c r="DO13"/>
-      <c r="DP13"/>
-      <c r="DQ13"/>
-      <c r="DR13"/>
-      <c r="DS13"/>
-      <c r="DT13"/>
-      <c r="DU13"/>
-      <c r="DV13"/>
-      <c r="DW13"/>
-      <c r="DX13"/>
-      <c r="DY13"/>
-      <c r="DZ13"/>
-      <c r="EA13"/>
-      <c r="EB13"/>
-      <c r="EC13"/>
-      <c r="ED13"/>
-      <c r="EE13"/>
-      <c r="EF13"/>
-      <c r="EG13"/>
-      <c r="EH13"/>
-      <c r="EI13"/>
-      <c r="EJ13"/>
-      <c r="EK13"/>
-      <c r="EL13"/>
-      <c r="EM13"/>
-      <c r="EN13"/>
-      <c r="EO13"/>
-      <c r="EP13"/>
-      <c r="EQ13"/>
-      <c r="ER13"/>
-      <c r="ES13"/>
-      <c r="ET13"/>
-      <c r="EU13"/>
-      <c r="EV13"/>
-      <c r="EW13"/>
-      <c r="EX13"/>
-      <c r="EY13"/>
-      <c r="EZ13"/>
-      <c r="FA13"/>
-      <c r="FB13"/>
-      <c r="FC13"/>
-      <c r="FD13"/>
-      <c r="FE13"/>
-      <c r="FF13"/>
-      <c r="FG13"/>
-      <c r="FH13"/>
-      <c r="FI13"/>
-      <c r="FJ13"/>
-      <c r="FK13"/>
-      <c r="FL13"/>
-      <c r="FM13"/>
-      <c r="FN13"/>
-      <c r="FO13"/>
-      <c r="FP13"/>
-      <c r="FQ13"/>
-      <c r="FR13"/>
-      <c r="FS13"/>
-      <c r="FT13"/>
-      <c r="FU13"/>
-      <c r="FV13"/>
-      <c r="FW13"/>
-      <c r="FX13"/>
-      <c r="FY13"/>
-      <c r="FZ13"/>
-      <c r="GA13"/>
-      <c r="GB13"/>
-      <c r="GC13"/>
-      <c r="GD13"/>
-      <c r="GE13"/>
-      <c r="GF13"/>
-      <c r="GG13"/>
-      <c r="GH13"/>
-      <c r="GI13"/>
-      <c r="GJ13"/>
-      <c r="GK13"/>
-      <c r="GL13"/>
-      <c r="GM13"/>
-      <c r="GN13"/>
-      <c r="GO13"/>
-      <c r="GP13"/>
-      <c r="GQ13"/>
-      <c r="GR13"/>
-      <c r="GS13"/>
-      <c r="GT13"/>
-      <c r="GU13"/>
-      <c r="GV13"/>
-      <c r="GW13"/>
-      <c r="GX13"/>
-      <c r="GY13"/>
-      <c r="GZ13"/>
-      <c r="HA13"/>
-      <c r="HB13"/>
-      <c r="HC13"/>
-      <c r="HD13"/>
-      <c r="HE13"/>
-      <c r="HF13"/>
-      <c r="HG13"/>
-      <c r="HH13"/>
-      <c r="HI13"/>
-      <c r="HJ13"/>
-      <c r="HK13"/>
-      <c r="HL13"/>
-      <c r="HM13"/>
-      <c r="HN13"/>
-      <c r="HO13"/>
-      <c r="HP13"/>
-      <c r="HQ13"/>
-      <c r="HR13"/>
-      <c r="HS13"/>
-      <c r="HT13"/>
-      <c r="HU13"/>
-      <c r="HV13"/>
-      <c r="HW13"/>
-      <c r="HX13"/>
-      <c r="HY13"/>
-      <c r="HZ13"/>
-      <c r="IA13"/>
-      <c r="IB13"/>
-      <c r="IC13"/>
-      <c r="ID13"/>
-      <c r="IE13"/>
-      <c r="IF13"/>
-      <c r="IG13"/>
-      <c r="IH13"/>
-      <c r="II13"/>
-      <c r="IJ13"/>
-      <c r="IK13"/>
-      <c r="IL13"/>
-      <c r="IM13"/>
-      <c r="IN13"/>
-      <c r="IO13"/>
-      <c r="IP13"/>
-      <c r="IQ13"/>
-      <c r="IR13"/>
-      <c r="IS13"/>
-      <c r="IT13"/>
-      <c r="IU13"/>
-      <c r="IV13"/>
-      <c r="IW13"/>
-      <c r="IX13"/>
-      <c r="IY13"/>
-      <c r="IZ13"/>
-      <c r="JA13"/>
-      <c r="JB13"/>
-      <c r="JC13"/>
-      <c r="JD13"/>
-      <c r="JE13"/>
-      <c r="JF13"/>
-      <c r="JG13"/>
-      <c r="JH13"/>
-      <c r="JI13"/>
-      <c r="JJ13"/>
-      <c r="JK13"/>
-      <c r="JL13"/>
-      <c r="JM13"/>
-      <c r="JN13"/>
-      <c r="JO13"/>
-      <c r="JP13"/>
-      <c r="JQ13"/>
-      <c r="JR13"/>
-      <c r="JS13"/>
-      <c r="JT13"/>
-      <c r="JU13"/>
-      <c r="JV13"/>
-      <c r="JW13"/>
-      <c r="JX13"/>
-      <c r="JY13"/>
-      <c r="JZ13"/>
-      <c r="KA13"/>
-      <c r="KB13"/>
-      <c r="KC13"/>
-      <c r="KD13"/>
-      <c r="KE13"/>
-      <c r="KF13"/>
-      <c r="KG13"/>
-      <c r="KH13"/>
-      <c r="KI13"/>
-      <c r="KJ13"/>
-      <c r="KK13"/>
-      <c r="KL13"/>
-      <c r="KM13"/>
-      <c r="KN13"/>
-      <c r="KO13"/>
-      <c r="KP13"/>
-      <c r="KQ13"/>
-      <c r="KR13"/>
-      <c r="KS13"/>
-      <c r="KT13"/>
-      <c r="KU13"/>
-      <c r="KV13"/>
-      <c r="KW13"/>
-      <c r="KX13"/>
-      <c r="KY13"/>
-      <c r="KZ13"/>
-      <c r="LA13"/>
-      <c r="LB13"/>
-      <c r="LC13"/>
-      <c r="LD13"/>
-      <c r="LE13"/>
-      <c r="LF13"/>
-      <c r="LG13"/>
-      <c r="LH13"/>
-      <c r="LI13"/>
-      <c r="LJ13"/>
-      <c r="LK13"/>
-      <c r="LL13"/>
-      <c r="LM13"/>
-      <c r="LN13"/>
-      <c r="LO13"/>
-      <c r="LP13"/>
-      <c r="LQ13"/>
-      <c r="LR13"/>
-      <c r="LS13"/>
-      <c r="LT13"/>
-      <c r="LU13"/>
-      <c r="LV13"/>
-      <c r="LW13"/>
-      <c r="LX13"/>
-      <c r="LY13"/>
-      <c r="LZ13"/>
-      <c r="MA13"/>
-      <c r="MB13"/>
-      <c r="MC13"/>
-      <c r="MD13"/>
-      <c r="ME13"/>
-      <c r="MF13"/>
-      <c r="MG13"/>
-      <c r="MH13"/>
-      <c r="MI13"/>
-      <c r="MJ13"/>
-      <c r="MK13"/>
-      <c r="ML13"/>
-      <c r="MM13"/>
-      <c r="MN13"/>
-      <c r="MO13"/>
-      <c r="MP13"/>
-      <c r="MQ13"/>
-      <c r="MR13"/>
-      <c r="MS13"/>
-      <c r="MT13"/>
-      <c r="MU13"/>
-      <c r="MV13"/>
-      <c r="MW13"/>
-      <c r="MX13"/>
-      <c r="MY13"/>
-      <c r="MZ13"/>
-      <c r="NA13"/>
-      <c r="NB13"/>
-      <c r="NC13"/>
-      <c r="ND13"/>
-      <c r="NE13"/>
-      <c r="NF13"/>
-      <c r="NG13"/>
-      <c r="NH13"/>
-      <c r="NI13"/>
-      <c r="NJ13"/>
-      <c r="NK13"/>
-      <c r="NL13"/>
-      <c r="NM13"/>
-      <c r="NN13"/>
-      <c r="NO13"/>
-      <c r="NP13"/>
-      <c r="NQ13"/>
-      <c r="NR13"/>
-      <c r="NS13"/>
-      <c r="NT13"/>
-      <c r="NU13"/>
-      <c r="NV13"/>
-      <c r="NW13"/>
-      <c r="NX13"/>
-      <c r="NY13"/>
-      <c r="NZ13"/>
-      <c r="OA13"/>
-      <c r="OB13"/>
-      <c r="OC13"/>
-      <c r="OD13"/>
-      <c r="OE13"/>
-      <c r="OF13"/>
-      <c r="OG13"/>
-      <c r="OH13"/>
-      <c r="OI13"/>
-      <c r="OJ13"/>
-      <c r="OK13"/>
-      <c r="OL13"/>
-      <c r="OM13"/>
-      <c r="ON13"/>
-      <c r="OO13"/>
-      <c r="OP13"/>
-      <c r="OQ13"/>
-      <c r="OR13"/>
-      <c r="OS13"/>
-      <c r="OT13"/>
-      <c r="OU13"/>
-      <c r="OV13"/>
-      <c r="OW13"/>
-      <c r="OX13"/>
-      <c r="OY13"/>
-      <c r="OZ13"/>
-      <c r="PA13"/>
-      <c r="PB13"/>
-      <c r="PC13"/>
-      <c r="PD13"/>
-      <c r="PE13"/>
-      <c r="PF13"/>
-      <c r="PG13"/>
-      <c r="PH13"/>
-      <c r="PI13"/>
-      <c r="PJ13"/>
-      <c r="PK13"/>
-      <c r="PL13"/>
-      <c r="PM13"/>
-      <c r="PN13"/>
-      <c r="PO13"/>
-      <c r="PP13"/>
-      <c r="PQ13"/>
-      <c r="PR13"/>
-      <c r="PS13"/>
-      <c r="PT13"/>
-      <c r="PU13"/>
-      <c r="PV13"/>
-      <c r="PW13"/>
-      <c r="PX13"/>
-      <c r="PY13"/>
-      <c r="PZ13"/>
-      <c r="QA13"/>
-      <c r="QB13"/>
-      <c r="QC13"/>
-      <c r="QD13"/>
-      <c r="QE13"/>
-      <c r="QF13"/>
-      <c r="QG13"/>
-      <c r="QH13"/>
-      <c r="QI13"/>
-      <c r="QJ13"/>
-      <c r="QK13"/>
-      <c r="QL13"/>
-      <c r="QM13"/>
-      <c r="QN13"/>
-      <c r="QO13"/>
-      <c r="QP13"/>
-      <c r="QQ13"/>
-      <c r="QR13"/>
-      <c r="QS13"/>
-      <c r="QT13"/>
-      <c r="QU13"/>
-      <c r="QV13"/>
-      <c r="QW13"/>
-      <c r="QX13"/>
-      <c r="QY13"/>
-      <c r="QZ13"/>
-      <c r="RA13"/>
-      <c r="RB13"/>
-      <c r="RC13"/>
-      <c r="RD13"/>
-      <c r="RE13"/>
-      <c r="RF13"/>
-      <c r="RG13"/>
-      <c r="RH13"/>
-      <c r="RI13"/>
-      <c r="RJ13"/>
-      <c r="RK13"/>
-      <c r="RL13"/>
-      <c r="RM13"/>
-      <c r="RN13"/>
-      <c r="RO13"/>
-      <c r="RP13"/>
-      <c r="RQ13"/>
-      <c r="RR13"/>
-      <c r="RS13"/>
-      <c r="RT13"/>
-      <c r="RU13"/>
-      <c r="RV13"/>
-      <c r="RW13"/>
-      <c r="RX13"/>
-      <c r="RY13"/>
-      <c r="RZ13"/>
-      <c r="SA13"/>
-      <c r="SB13"/>
-      <c r="SC13"/>
-      <c r="SD13"/>
-      <c r="SE13"/>
-      <c r="SF13"/>
-      <c r="SG13"/>
-      <c r="SH13"/>
-      <c r="SI13"/>
-      <c r="SJ13"/>
-      <c r="SK13"/>
-      <c r="SL13"/>
-      <c r="SM13"/>
-      <c r="SN13"/>
-      <c r="SO13"/>
-      <c r="SP13"/>
-      <c r="SQ13"/>
-      <c r="SR13"/>
-      <c r="SS13"/>
-      <c r="ST13"/>
-      <c r="SU13"/>
-      <c r="SV13"/>
-      <c r="SW13"/>
-      <c r="SX13"/>
-      <c r="SY13"/>
-      <c r="SZ13"/>
-      <c r="TA13"/>
-      <c r="TB13"/>
-      <c r="TC13"/>
-      <c r="TD13"/>
-      <c r="TE13"/>
-      <c r="TF13"/>
-      <c r="TG13"/>
-      <c r="TH13"/>
-      <c r="TI13"/>
-      <c r="TJ13"/>
-      <c r="TK13"/>
-      <c r="TL13"/>
-      <c r="TM13"/>
-      <c r="TN13"/>
-      <c r="TO13"/>
-      <c r="TP13"/>
-      <c r="TQ13"/>
-      <c r="TR13"/>
-      <c r="TS13"/>
-      <c r="TT13"/>
-      <c r="TU13"/>
-      <c r="TV13"/>
-      <c r="TW13"/>
-      <c r="TX13"/>
-      <c r="TY13"/>
-      <c r="TZ13"/>
-      <c r="UA13"/>
-      <c r="UB13"/>
-      <c r="UC13"/>
-      <c r="UD13"/>
-      <c r="UE13"/>
-      <c r="UF13"/>
-      <c r="UG13"/>
-      <c r="UH13"/>
-      <c r="UI13"/>
-      <c r="UJ13"/>
-      <c r="UK13"/>
-      <c r="UL13"/>
-      <c r="UM13"/>
-      <c r="UN13"/>
-      <c r="UO13"/>
-      <c r="UP13"/>
-      <c r="UQ13"/>
-      <c r="UR13"/>
-      <c r="US13"/>
-      <c r="UT13"/>
-      <c r="UU13"/>
-      <c r="UV13"/>
-      <c r="UW13"/>
-      <c r="UX13"/>
-      <c r="UY13"/>
-      <c r="UZ13"/>
-      <c r="VA13"/>
-      <c r="VB13"/>
-      <c r="VC13"/>
-      <c r="VD13"/>
-      <c r="VE13"/>
-      <c r="VF13"/>
-      <c r="VG13"/>
-      <c r="VH13"/>
-      <c r="VI13"/>
-      <c r="VJ13"/>
-      <c r="VK13"/>
-      <c r="VL13"/>
-      <c r="VM13"/>
-      <c r="VN13"/>
-      <c r="VO13"/>
-      <c r="VP13"/>
-      <c r="VQ13"/>
-      <c r="VR13"/>
-      <c r="VS13"/>
-      <c r="VT13"/>
-      <c r="VU13"/>
-      <c r="VV13"/>
-      <c r="VW13"/>
-      <c r="VX13"/>
-      <c r="VY13"/>
-      <c r="VZ13"/>
-      <c r="WA13"/>
-      <c r="WB13"/>
-      <c r="WC13"/>
-      <c r="WD13"/>
-      <c r="WE13"/>
-      <c r="WF13"/>
-      <c r="WG13"/>
-      <c r="WH13"/>
-      <c r="WI13"/>
-      <c r="WJ13"/>
-      <c r="WK13"/>
-      <c r="WL13"/>
-      <c r="WM13"/>
-      <c r="WN13"/>
-      <c r="WO13"/>
-      <c r="WP13"/>
-      <c r="WQ13"/>
-      <c r="WR13"/>
-      <c r="WS13"/>
-      <c r="WT13"/>
-      <c r="WU13"/>
-      <c r="WV13"/>
-      <c r="WW13"/>
-      <c r="WX13"/>
-      <c r="WY13"/>
-      <c r="WZ13"/>
-      <c r="XA13"/>
-      <c r="XB13"/>
-      <c r="XC13"/>
-      <c r="XD13"/>
-      <c r="XE13"/>
-      <c r="XF13"/>
-      <c r="XG13"/>
-      <c r="XH13"/>
-      <c r="XI13"/>
-      <c r="XJ13"/>
-      <c r="XK13"/>
-      <c r="XL13"/>
-      <c r="XM13"/>
-      <c r="XN13"/>
-      <c r="XO13"/>
-      <c r="XP13"/>
-      <c r="XQ13"/>
-      <c r="XR13"/>
-      <c r="XS13"/>
-      <c r="XT13"/>
-      <c r="XU13"/>
-      <c r="XV13"/>
-      <c r="XW13"/>
-      <c r="XX13"/>
-      <c r="XY13"/>
-      <c r="XZ13"/>
-      <c r="YA13"/>
-      <c r="YB13"/>
-      <c r="YC13"/>
-      <c r="YD13"/>
-      <c r="YE13"/>
-      <c r="YF13"/>
-      <c r="YG13"/>
-      <c r="YH13"/>
-      <c r="YI13"/>
-      <c r="YJ13"/>
-      <c r="YK13"/>
-      <c r="YL13"/>
-      <c r="YM13"/>
-      <c r="YN13"/>
-      <c r="YO13"/>
-      <c r="YP13"/>
-      <c r="YQ13"/>
-      <c r="YR13"/>
-      <c r="YS13"/>
-      <c r="YT13"/>
-      <c r="YU13"/>
-      <c r="YV13"/>
-      <c r="YW13"/>
-      <c r="YX13"/>
-      <c r="YY13"/>
-      <c r="YZ13"/>
-      <c r="ZA13"/>
-      <c r="ZB13"/>
-      <c r="ZC13"/>
-      <c r="ZD13"/>
-      <c r="ZE13"/>
-      <c r="ZF13"/>
-      <c r="ZG13"/>
-      <c r="ZH13"/>
-      <c r="ZI13"/>
-      <c r="ZJ13"/>
-      <c r="ZK13"/>
-      <c r="ZL13"/>
-      <c r="ZM13"/>
-      <c r="ZN13"/>
-      <c r="ZO13"/>
-      <c r="ZP13"/>
-      <c r="ZQ13"/>
-      <c r="ZR13"/>
-      <c r="ZS13"/>
-      <c r="ZT13"/>
-      <c r="ZU13"/>
-      <c r="ZV13"/>
-      <c r="ZW13"/>
-      <c r="ZX13"/>
-      <c r="ZY13"/>
-      <c r="ZZ13"/>
-      <c r="AAA13"/>
-      <c r="AAB13"/>
-      <c r="AAC13"/>
-      <c r="AAD13"/>
-      <c r="AAE13"/>
-      <c r="AAF13"/>
-      <c r="AAG13"/>
-      <c r="AAH13"/>
-      <c r="AAI13"/>
-      <c r="AAJ13"/>
-      <c r="AAK13"/>
-      <c r="AAL13"/>
-      <c r="AAM13"/>
-      <c r="AAN13"/>
-      <c r="AAO13"/>
-      <c r="AAP13"/>
-      <c r="AAQ13"/>
-      <c r="AAR13"/>
-      <c r="AAS13"/>
-      <c r="AAT13"/>
-      <c r="AAU13"/>
-      <c r="AAV13"/>
-      <c r="AAW13"/>
-      <c r="AAX13"/>
-      <c r="AAY13"/>
-      <c r="AAZ13"/>
-      <c r="ABA13"/>
-      <c r="ABB13"/>
-      <c r="ABC13"/>
-      <c r="ABD13"/>
-      <c r="ABE13"/>
-      <c r="ABF13"/>
-      <c r="ABG13"/>
-      <c r="ABH13"/>
-      <c r="ABI13"/>
-      <c r="ABJ13"/>
-      <c r="ABK13"/>
-      <c r="ABL13"/>
-      <c r="ABM13"/>
-      <c r="ABN13"/>
-      <c r="ABO13"/>
-      <c r="ABP13"/>
-      <c r="ABQ13"/>
-      <c r="ABR13"/>
-      <c r="ABS13"/>
-      <c r="ABT13"/>
-      <c r="ABU13"/>
-      <c r="ABV13"/>
-      <c r="ABW13"/>
-      <c r="ABX13"/>
-      <c r="ABY13"/>
-      <c r="ABZ13"/>
-      <c r="ACA13"/>
-      <c r="ACB13"/>
-      <c r="ACC13"/>
-      <c r="ACD13"/>
-      <c r="ACE13"/>
-      <c r="ACF13"/>
-      <c r="ACG13"/>
-      <c r="ACH13"/>
-      <c r="ACI13"/>
-      <c r="ACJ13"/>
-      <c r="ACK13"/>
-      <c r="ACL13"/>
-      <c r="ACM13"/>
-      <c r="ACN13"/>
-      <c r="ACO13"/>
-      <c r="ACP13"/>
-      <c r="ACQ13"/>
-      <c r="ACR13"/>
-      <c r="ACS13"/>
-      <c r="ACT13"/>
-      <c r="ACU13"/>
-      <c r="ACV13"/>
-      <c r="ACW13"/>
-      <c r="ACX13"/>
-      <c r="ACY13"/>
-      <c r="ACZ13"/>
-      <c r="ADA13"/>
-      <c r="ADB13"/>
-      <c r="ADC13"/>
-      <c r="ADD13"/>
-      <c r="ADE13"/>
-      <c r="ADF13"/>
-      <c r="ADG13"/>
-      <c r="ADH13"/>
-      <c r="ADI13"/>
-      <c r="ADJ13"/>
-      <c r="ADK13"/>
-      <c r="ADL13"/>
-      <c r="ADM13"/>
-      <c r="ADN13"/>
-      <c r="ADO13"/>
-      <c r="ADP13"/>
-      <c r="ADQ13"/>
-      <c r="ADR13"/>
-      <c r="ADS13"/>
-      <c r="ADT13"/>
-      <c r="ADU13"/>
-      <c r="ADV13"/>
-      <c r="ADW13"/>
-      <c r="ADX13"/>
-      <c r="ADY13"/>
-      <c r="ADZ13"/>
-      <c r="AEA13"/>
-      <c r="AEB13"/>
-      <c r="AEC13"/>
-      <c r="AED13"/>
-      <c r="AEE13"/>
-      <c r="AEF13"/>
-      <c r="AEG13"/>
-      <c r="AEH13"/>
-      <c r="AEI13"/>
-      <c r="AEJ13"/>
-      <c r="AEK13"/>
-      <c r="AEL13"/>
-      <c r="AEM13"/>
-      <c r="AEN13"/>
-      <c r="AEO13"/>
-      <c r="AEP13"/>
-      <c r="AEQ13"/>
-      <c r="AER13"/>
-      <c r="AES13"/>
-      <c r="AET13"/>
-      <c r="AEU13"/>
-      <c r="AEV13"/>
-      <c r="AEW13"/>
-      <c r="AEX13"/>
-      <c r="AEY13"/>
-      <c r="AEZ13"/>
-      <c r="AFA13"/>
-      <c r="AFB13"/>
-      <c r="AFC13"/>
-      <c r="AFD13"/>
-      <c r="AFE13"/>
-      <c r="AFF13"/>
-      <c r="AFG13"/>
-      <c r="AFH13"/>
-      <c r="AFI13"/>
-      <c r="AFJ13"/>
-      <c r="AFK13"/>
-      <c r="AFL13"/>
-      <c r="AFM13"/>
-      <c r="AFN13"/>
-      <c r="AFO13"/>
-      <c r="AFP13"/>
-      <c r="AFQ13"/>
-      <c r="AFR13"/>
-      <c r="AFS13"/>
-      <c r="AFT13"/>
-      <c r="AFU13"/>
-      <c r="AFV13"/>
-      <c r="AFW13"/>
-      <c r="AFX13"/>
-      <c r="AFY13"/>
-      <c r="AFZ13"/>
-      <c r="AGA13"/>
-      <c r="AGB13"/>
-      <c r="AGC13"/>
-      <c r="AGD13"/>
-      <c r="AGE13"/>
-      <c r="AGF13"/>
-      <c r="AGG13"/>
-      <c r="AGH13"/>
-      <c r="AGI13"/>
-      <c r="AGJ13"/>
-      <c r="AGK13"/>
-      <c r="AGL13"/>
-      <c r="AGM13"/>
-      <c r="AGN13"/>
-      <c r="AGO13"/>
-      <c r="AGP13"/>
-      <c r="AGQ13"/>
-      <c r="AGR13"/>
-      <c r="AGS13"/>
-      <c r="AGT13"/>
-      <c r="AGU13"/>
-      <c r="AGV13"/>
-      <c r="AGW13"/>
-      <c r="AGX13"/>
-      <c r="AGY13"/>
-      <c r="AGZ13"/>
-      <c r="AHA13"/>
-      <c r="AHB13"/>
-      <c r="AHC13"/>
-      <c r="AHD13"/>
-      <c r="AHE13"/>
-      <c r="AHF13"/>
-      <c r="AHG13"/>
-      <c r="AHH13"/>
-      <c r="AHI13"/>
-      <c r="AHJ13"/>
-      <c r="AHK13"/>
-      <c r="AHL13"/>
-      <c r="AHM13"/>
-      <c r="AHN13"/>
-      <c r="AHO13"/>
-      <c r="AHP13"/>
-      <c r="AHQ13"/>
-      <c r="AHR13"/>
-      <c r="AHS13"/>
-      <c r="AHT13"/>
-      <c r="AHU13"/>
-      <c r="AHV13"/>
-      <c r="AHW13"/>
-      <c r="AHX13"/>
-      <c r="AHY13"/>
-      <c r="AHZ13"/>
-      <c r="AIA13"/>
-      <c r="AIB13"/>
-      <c r="AIC13"/>
-      <c r="AID13"/>
-      <c r="AIE13"/>
-      <c r="AIF13"/>
-      <c r="AIG13"/>
-      <c r="AIH13"/>
-      <c r="AII13"/>
-      <c r="AIJ13"/>
-      <c r="AIK13"/>
-      <c r="AIL13"/>
-      <c r="AIM13"/>
-      <c r="AIN13"/>
-      <c r="AIO13"/>
-      <c r="AIP13"/>
-      <c r="AIQ13"/>
-      <c r="AIR13"/>
-      <c r="AIS13"/>
-      <c r="AIT13"/>
-      <c r="AIU13"/>
-      <c r="AIV13"/>
-      <c r="AIW13"/>
-      <c r="AIX13"/>
-      <c r="AIY13"/>
-      <c r="AIZ13"/>
-      <c r="AJA13"/>
-      <c r="AJB13"/>
-      <c r="AJC13"/>
-      <c r="AJD13"/>
-      <c r="AJE13"/>
-      <c r="AJF13"/>
-      <c r="AJG13"/>
-      <c r="AJH13"/>
-      <c r="AJI13"/>
-      <c r="AJJ13"/>
-      <c r="AJK13"/>
-      <c r="AJL13"/>
-      <c r="AJM13"/>
-      <c r="AJN13"/>
-      <c r="AJO13"/>
-      <c r="AJP13"/>
-      <c r="AJQ13"/>
-      <c r="AJR13"/>
-      <c r="AJS13"/>
-      <c r="AJT13"/>
-      <c r="AJU13"/>
-      <c r="AJV13"/>
-      <c r="AJW13"/>
-      <c r="AJX13"/>
-      <c r="AJY13"/>
-      <c r="AJZ13"/>
-      <c r="AKA13"/>
-      <c r="AKB13"/>
-      <c r="AKC13"/>
-      <c r="AKD13"/>
-      <c r="AKE13"/>
-      <c r="AKF13"/>
-      <c r="AKG13"/>
-      <c r="AKH13"/>
-      <c r="AKI13"/>
-      <c r="AKJ13"/>
-      <c r="AKK13"/>
-      <c r="AKL13"/>
-      <c r="AKM13"/>
-      <c r="AKN13"/>
-      <c r="AKO13"/>
-      <c r="AKP13"/>
-      <c r="AKQ13"/>
-      <c r="AKR13"/>
-      <c r="AKS13"/>
-      <c r="AKT13"/>
-      <c r="AKU13"/>
-      <c r="AKV13"/>
-      <c r="AKW13"/>
-      <c r="AKX13"/>
-      <c r="AKY13"/>
-      <c r="AKZ13"/>
-      <c r="ALA13"/>
-      <c r="ALB13"/>
-      <c r="ALC13"/>
-      <c r="ALD13"/>
-      <c r="ALE13"/>
-      <c r="ALF13"/>
-      <c r="ALG13"/>
-      <c r="ALH13"/>
-      <c r="ALI13"/>
-      <c r="ALJ13"/>
-      <c r="ALK13"/>
-      <c r="ALL13"/>
-      <c r="ALM13"/>
-      <c r="ALN13"/>
-      <c r="ALO13"/>
-      <c r="ALP13"/>
-      <c r="ALQ13"/>
-      <c r="ALR13"/>
-      <c r="ALS13"/>
-      <c r="ALT13"/>
-      <c r="ALU13"/>
-      <c r="ALV13"/>
-      <c r="ALW13"/>
-      <c r="ALX13"/>
-      <c r="ALY13"/>
-      <c r="ALZ13"/>
-      <c r="AMA13"/>
-      <c r="AMB13"/>
-      <c r="AMC13"/>
-      <c r="AMD13"/>
-      <c r="AME13"/>
-      <c r="AMF13"/>
-      <c r="AMG13"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
+      <c r="B12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="35">
+        <v>42528</v>
+      </c>
+      <c r="F12" s="35">
+        <v>42528</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
     </row>
-    <row r="14" spans="1:1024">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-      <c r="AQ14"/>
-      <c r="AR14"/>
-      <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14"/>
-      <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
-      <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
-      <c r="BE14"/>
-      <c r="BF14"/>
-      <c r="BG14"/>
-      <c r="BH14"/>
-      <c r="BI14"/>
-      <c r="BJ14"/>
-      <c r="BK14"/>
-      <c r="BL14"/>
-      <c r="BM14"/>
-      <c r="BN14"/>
-      <c r="BO14"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
-      <c r="BY14"/>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
-      <c r="CG14"/>
-      <c r="CH14"/>
-      <c r="CI14"/>
-      <c r="CJ14"/>
-      <c r="CK14"/>
-      <c r="CL14"/>
-      <c r="CM14"/>
-      <c r="CN14"/>
-      <c r="CO14"/>
-      <c r="CP14"/>
-      <c r="CQ14"/>
-      <c r="CR14"/>
-      <c r="CS14"/>
-      <c r="CT14"/>
-      <c r="CU14"/>
-      <c r="CV14"/>
-      <c r="CW14"/>
-      <c r="CX14"/>
-      <c r="CY14"/>
-      <c r="CZ14"/>
-      <c r="DA14"/>
-      <c r="DB14"/>
-      <c r="DC14"/>
-      <c r="DD14"/>
-      <c r="DE14"/>
-      <c r="DF14"/>
-      <c r="DG14"/>
-      <c r="DH14"/>
-      <c r="DI14"/>
-      <c r="DJ14"/>
-      <c r="DK14"/>
-      <c r="DL14"/>
-      <c r="DM14"/>
-      <c r="DN14"/>
-      <c r="DO14"/>
-      <c r="DP14"/>
-      <c r="DQ14"/>
-      <c r="DR14"/>
-      <c r="DS14"/>
-      <c r="DT14"/>
-      <c r="DU14"/>
-      <c r="DV14"/>
-      <c r="DW14"/>
-      <c r="DX14"/>
-      <c r="DY14"/>
-      <c r="DZ14"/>
-      <c r="EA14"/>
-      <c r="EB14"/>
-      <c r="EC14"/>
-      <c r="ED14"/>
-      <c r="EE14"/>
-      <c r="EF14"/>
-      <c r="EG14"/>
-      <c r="EH14"/>
-      <c r="EI14"/>
-      <c r="EJ14"/>
-      <c r="EK14"/>
-      <c r="EL14"/>
-      <c r="EM14"/>
-      <c r="EN14"/>
-      <c r="EO14"/>
-      <c r="EP14"/>
-      <c r="EQ14"/>
-      <c r="ER14"/>
-      <c r="ES14"/>
-      <c r="ET14"/>
-      <c r="EU14"/>
-      <c r="EV14"/>
-      <c r="EW14"/>
-      <c r="EX14"/>
-      <c r="EY14"/>
-      <c r="EZ14"/>
-      <c r="FA14"/>
-      <c r="FB14"/>
-      <c r="FC14"/>
-      <c r="FD14"/>
-      <c r="FE14"/>
-      <c r="FF14"/>
-      <c r="FG14"/>
-      <c r="FH14"/>
-      <c r="FI14"/>
-      <c r="FJ14"/>
-      <c r="FK14"/>
-      <c r="FL14"/>
-      <c r="FM14"/>
-      <c r="FN14"/>
-      <c r="FO14"/>
-      <c r="FP14"/>
-      <c r="FQ14"/>
-      <c r="FR14"/>
-      <c r="FS14"/>
-      <c r="FT14"/>
-      <c r="FU14"/>
-      <c r="FV14"/>
-      <c r="FW14"/>
-      <c r="FX14"/>
-      <c r="FY14"/>
-      <c r="FZ14"/>
-      <c r="GA14"/>
-      <c r="GB14"/>
-      <c r="GC14"/>
-      <c r="GD14"/>
-      <c r="GE14"/>
-      <c r="GF14"/>
-      <c r="GG14"/>
-      <c r="GH14"/>
-      <c r="GI14"/>
-      <c r="GJ14"/>
-      <c r="GK14"/>
-      <c r="GL14"/>
-      <c r="GM14"/>
-      <c r="GN14"/>
-      <c r="GO14"/>
-      <c r="GP14"/>
-      <c r="GQ14"/>
-      <c r="GR14"/>
-      <c r="GS14"/>
-      <c r="GT14"/>
-      <c r="GU14"/>
-      <c r="GV14"/>
-      <c r="GW14"/>
-      <c r="GX14"/>
-      <c r="GY14"/>
-      <c r="GZ14"/>
-      <c r="HA14"/>
-      <c r="HB14"/>
-      <c r="HC14"/>
-      <c r="HD14"/>
-      <c r="HE14"/>
-      <c r="HF14"/>
-      <c r="HG14"/>
-      <c r="HH14"/>
-      <c r="HI14"/>
-      <c r="HJ14"/>
-      <c r="HK14"/>
-      <c r="HL14"/>
-      <c r="HM14"/>
-      <c r="HN14"/>
-      <c r="HO14"/>
-      <c r="HP14"/>
-      <c r="HQ14"/>
-      <c r="HR14"/>
-      <c r="HS14"/>
-      <c r="HT14"/>
-      <c r="HU14"/>
-      <c r="HV14"/>
-      <c r="HW14"/>
-      <c r="HX14"/>
-      <c r="HY14"/>
-      <c r="HZ14"/>
-      <c r="IA14"/>
-      <c r="IB14"/>
-      <c r="IC14"/>
-      <c r="ID14"/>
-      <c r="IE14"/>
-      <c r="IF14"/>
-      <c r="IG14"/>
-      <c r="IH14"/>
-      <c r="II14"/>
-      <c r="IJ14"/>
-      <c r="IK14"/>
-      <c r="IL14"/>
-      <c r="IM14"/>
-      <c r="IN14"/>
-      <c r="IO14"/>
-      <c r="IP14"/>
-      <c r="IQ14"/>
-      <c r="IR14"/>
-      <c r="IS14"/>
-      <c r="IT14"/>
-      <c r="IU14"/>
-      <c r="IV14"/>
-      <c r="IW14"/>
-      <c r="IX14"/>
-      <c r="IY14"/>
-      <c r="IZ14"/>
-      <c r="JA14"/>
-      <c r="JB14"/>
-      <c r="JC14"/>
-      <c r="JD14"/>
-      <c r="JE14"/>
-      <c r="JF14"/>
-      <c r="JG14"/>
-      <c r="JH14"/>
-      <c r="JI14"/>
-      <c r="JJ14"/>
-      <c r="JK14"/>
-      <c r="JL14"/>
-      <c r="JM14"/>
-      <c r="JN14"/>
-      <c r="JO14"/>
-      <c r="JP14"/>
-      <c r="JQ14"/>
-      <c r="JR14"/>
-      <c r="JS14"/>
-      <c r="JT14"/>
-      <c r="JU14"/>
-      <c r="JV14"/>
-      <c r="JW14"/>
-      <c r="JX14"/>
-      <c r="JY14"/>
-      <c r="JZ14"/>
-      <c r="KA14"/>
-      <c r="KB14"/>
-      <c r="KC14"/>
-      <c r="KD14"/>
-      <c r="KE14"/>
-      <c r="KF14"/>
-      <c r="KG14"/>
-      <c r="KH14"/>
-      <c r="KI14"/>
-      <c r="KJ14"/>
-      <c r="KK14"/>
-      <c r="KL14"/>
-      <c r="KM14"/>
-      <c r="KN14"/>
-      <c r="KO14"/>
-      <c r="KP14"/>
-      <c r="KQ14"/>
-      <c r="KR14"/>
-      <c r="KS14"/>
-      <c r="KT14"/>
-      <c r="KU14"/>
-      <c r="KV14"/>
-      <c r="KW14"/>
-      <c r="KX14"/>
-      <c r="KY14"/>
-      <c r="KZ14"/>
-      <c r="LA14"/>
-      <c r="LB14"/>
-      <c r="LC14"/>
-      <c r="LD14"/>
-      <c r="LE14"/>
-      <c r="LF14"/>
-      <c r="LG14"/>
-      <c r="LH14"/>
-      <c r="LI14"/>
-      <c r="LJ14"/>
-      <c r="LK14"/>
-      <c r="LL14"/>
-      <c r="LM14"/>
-      <c r="LN14"/>
-      <c r="LO14"/>
-      <c r="LP14"/>
-      <c r="LQ14"/>
-      <c r="LR14"/>
-      <c r="LS14"/>
-      <c r="LT14"/>
-      <c r="LU14"/>
-      <c r="LV14"/>
-      <c r="LW14"/>
-      <c r="LX14"/>
-      <c r="LY14"/>
-      <c r="LZ14"/>
-      <c r="MA14"/>
-      <c r="MB14"/>
-      <c r="MC14"/>
-      <c r="MD14"/>
-      <c r="ME14"/>
-      <c r="MF14"/>
-      <c r="MG14"/>
-      <c r="MH14"/>
-      <c r="MI14"/>
-      <c r="MJ14"/>
-      <c r="MK14"/>
-      <c r="ML14"/>
-      <c r="MM14"/>
-      <c r="MN14"/>
-      <c r="MO14"/>
-      <c r="MP14"/>
-      <c r="MQ14"/>
-      <c r="MR14"/>
-      <c r="MS14"/>
-      <c r="MT14"/>
-      <c r="MU14"/>
-      <c r="MV14"/>
-      <c r="MW14"/>
-      <c r="MX14"/>
-      <c r="MY14"/>
-      <c r="MZ14"/>
-      <c r="NA14"/>
-      <c r="NB14"/>
-      <c r="NC14"/>
-      <c r="ND14"/>
-      <c r="NE14"/>
-      <c r="NF14"/>
-      <c r="NG14"/>
-      <c r="NH14"/>
-      <c r="NI14"/>
-      <c r="NJ14"/>
-      <c r="NK14"/>
-      <c r="NL14"/>
-      <c r="NM14"/>
-      <c r="NN14"/>
-      <c r="NO14"/>
-      <c r="NP14"/>
-      <c r="NQ14"/>
-      <c r="NR14"/>
-      <c r="NS14"/>
-      <c r="NT14"/>
-      <c r="NU14"/>
-      <c r="NV14"/>
-      <c r="NW14"/>
-      <c r="NX14"/>
-      <c r="NY14"/>
-      <c r="NZ14"/>
-      <c r="OA14"/>
-      <c r="OB14"/>
-      <c r="OC14"/>
-      <c r="OD14"/>
-      <c r="OE14"/>
-      <c r="OF14"/>
-      <c r="OG14"/>
-      <c r="OH14"/>
-      <c r="OI14"/>
-      <c r="OJ14"/>
-      <c r="OK14"/>
-      <c r="OL14"/>
-      <c r="OM14"/>
-      <c r="ON14"/>
-      <c r="OO14"/>
-      <c r="OP14"/>
-      <c r="OQ14"/>
-      <c r="OR14"/>
-      <c r="OS14"/>
-      <c r="OT14"/>
-      <c r="OU14"/>
-      <c r="OV14"/>
-      <c r="OW14"/>
-      <c r="OX14"/>
-      <c r="OY14"/>
-      <c r="OZ14"/>
-      <c r="PA14"/>
-      <c r="PB14"/>
-      <c r="PC14"/>
-      <c r="PD14"/>
-      <c r="PE14"/>
-      <c r="PF14"/>
-      <c r="PG14"/>
-      <c r="PH14"/>
-      <c r="PI14"/>
-      <c r="PJ14"/>
-      <c r="PK14"/>
-      <c r="PL14"/>
-      <c r="PM14"/>
-      <c r="PN14"/>
-      <c r="PO14"/>
-      <c r="PP14"/>
-      <c r="PQ14"/>
-      <c r="PR14"/>
-      <c r="PS14"/>
-      <c r="PT14"/>
-      <c r="PU14"/>
-      <c r="PV14"/>
-      <c r="PW14"/>
-      <c r="PX14"/>
-      <c r="PY14"/>
-      <c r="PZ14"/>
-      <c r="QA14"/>
-      <c r="QB14"/>
-      <c r="QC14"/>
-      <c r="QD14"/>
-      <c r="QE14"/>
-      <c r="QF14"/>
-      <c r="QG14"/>
-      <c r="QH14"/>
-      <c r="QI14"/>
-      <c r="QJ14"/>
-      <c r="QK14"/>
-      <c r="QL14"/>
-      <c r="QM14"/>
-      <c r="QN14"/>
-      <c r="QO14"/>
-      <c r="QP14"/>
-      <c r="QQ14"/>
-      <c r="QR14"/>
-      <c r="QS14"/>
-      <c r="QT14"/>
-      <c r="QU14"/>
-      <c r="QV14"/>
-      <c r="QW14"/>
-      <c r="QX14"/>
-      <c r="QY14"/>
-      <c r="QZ14"/>
-      <c r="RA14"/>
-      <c r="RB14"/>
-      <c r="RC14"/>
-      <c r="RD14"/>
-      <c r="RE14"/>
-      <c r="RF14"/>
-      <c r="RG14"/>
-      <c r="RH14"/>
-      <c r="RI14"/>
-      <c r="RJ14"/>
-      <c r="RK14"/>
-      <c r="RL14"/>
-      <c r="RM14"/>
-      <c r="RN14"/>
-      <c r="RO14"/>
-      <c r="RP14"/>
-      <c r="RQ14"/>
-      <c r="RR14"/>
-      <c r="RS14"/>
-      <c r="RT14"/>
-      <c r="RU14"/>
-      <c r="RV14"/>
-      <c r="RW14"/>
-      <c r="RX14"/>
-      <c r="RY14"/>
-      <c r="RZ14"/>
-      <c r="SA14"/>
-      <c r="SB14"/>
-      <c r="SC14"/>
-      <c r="SD14"/>
-      <c r="SE14"/>
-      <c r="SF14"/>
-      <c r="SG14"/>
-      <c r="SH14"/>
-      <c r="SI14"/>
-      <c r="SJ14"/>
-      <c r="SK14"/>
-      <c r="SL14"/>
-      <c r="SM14"/>
-      <c r="SN14"/>
-      <c r="SO14"/>
-      <c r="SP14"/>
-      <c r="SQ14"/>
-      <c r="SR14"/>
-      <c r="SS14"/>
-      <c r="ST14"/>
-      <c r="SU14"/>
-      <c r="SV14"/>
-      <c r="SW14"/>
-      <c r="SX14"/>
-      <c r="SY14"/>
-      <c r="SZ14"/>
-      <c r="TA14"/>
-      <c r="TB14"/>
-      <c r="TC14"/>
-      <c r="TD14"/>
-      <c r="TE14"/>
-      <c r="TF14"/>
-      <c r="TG14"/>
-      <c r="TH14"/>
-      <c r="TI14"/>
-      <c r="TJ14"/>
-      <c r="TK14"/>
-      <c r="TL14"/>
-      <c r="TM14"/>
-      <c r="TN14"/>
-      <c r="TO14"/>
-      <c r="TP14"/>
-      <c r="TQ14"/>
-      <c r="TR14"/>
-      <c r="TS14"/>
-      <c r="TT14"/>
-      <c r="TU14"/>
-      <c r="TV14"/>
-      <c r="TW14"/>
-      <c r="TX14"/>
-      <c r="TY14"/>
-      <c r="TZ14"/>
-      <c r="UA14"/>
-      <c r="UB14"/>
-      <c r="UC14"/>
-      <c r="UD14"/>
-      <c r="UE14"/>
-      <c r="UF14"/>
-      <c r="UG14"/>
-      <c r="UH14"/>
-      <c r="UI14"/>
-      <c r="UJ14"/>
-      <c r="UK14"/>
-      <c r="UL14"/>
-      <c r="UM14"/>
-      <c r="UN14"/>
-      <c r="UO14"/>
-      <c r="UP14"/>
-      <c r="UQ14"/>
-      <c r="UR14"/>
-      <c r="US14"/>
-      <c r="UT14"/>
-      <c r="UU14"/>
-      <c r="UV14"/>
-      <c r="UW14"/>
-      <c r="UX14"/>
-      <c r="UY14"/>
-      <c r="UZ14"/>
-      <c r="VA14"/>
-      <c r="VB14"/>
-      <c r="VC14"/>
-      <c r="VD14"/>
-      <c r="VE14"/>
-      <c r="VF14"/>
-      <c r="VG14"/>
-      <c r="VH14"/>
-      <c r="VI14"/>
-      <c r="VJ14"/>
-      <c r="VK14"/>
-      <c r="VL14"/>
-      <c r="VM14"/>
-      <c r="VN14"/>
-      <c r="VO14"/>
-      <c r="VP14"/>
-      <c r="VQ14"/>
-      <c r="VR14"/>
-      <c r="VS14"/>
-      <c r="VT14"/>
-      <c r="VU14"/>
-      <c r="VV14"/>
-      <c r="VW14"/>
-      <c r="VX14"/>
-      <c r="VY14"/>
-      <c r="VZ14"/>
-      <c r="WA14"/>
-      <c r="WB14"/>
-      <c r="WC14"/>
-      <c r="WD14"/>
-      <c r="WE14"/>
-      <c r="WF14"/>
-      <c r="WG14"/>
-      <c r="WH14"/>
-      <c r="WI14"/>
-      <c r="WJ14"/>
-      <c r="WK14"/>
-      <c r="WL14"/>
-      <c r="WM14"/>
-      <c r="WN14"/>
-      <c r="WO14"/>
-      <c r="WP14"/>
-      <c r="WQ14"/>
-      <c r="WR14"/>
-      <c r="WS14"/>
-      <c r="WT14"/>
-      <c r="WU14"/>
-      <c r="WV14"/>
-      <c r="WW14"/>
-      <c r="WX14"/>
-      <c r="WY14"/>
-      <c r="WZ14"/>
-      <c r="XA14"/>
-      <c r="XB14"/>
-      <c r="XC14"/>
-      <c r="XD14"/>
-      <c r="XE14"/>
-      <c r="XF14"/>
-      <c r="XG14"/>
-      <c r="XH14"/>
-      <c r="XI14"/>
-      <c r="XJ14"/>
-      <c r="XK14"/>
-      <c r="XL14"/>
-      <c r="XM14"/>
-      <c r="XN14"/>
-      <c r="XO14"/>
-      <c r="XP14"/>
-      <c r="XQ14"/>
-      <c r="XR14"/>
-      <c r="XS14"/>
-      <c r="XT14"/>
-      <c r="XU14"/>
-      <c r="XV14"/>
-      <c r="XW14"/>
-      <c r="XX14"/>
-      <c r="XY14"/>
-      <c r="XZ14"/>
-      <c r="YA14"/>
-      <c r="YB14"/>
-      <c r="YC14"/>
-      <c r="YD14"/>
-      <c r="YE14"/>
-      <c r="YF14"/>
-      <c r="YG14"/>
-      <c r="YH14"/>
-      <c r="YI14"/>
-      <c r="YJ14"/>
-      <c r="YK14"/>
-      <c r="YL14"/>
-      <c r="YM14"/>
-      <c r="YN14"/>
-      <c r="YO14"/>
-      <c r="YP14"/>
-      <c r="YQ14"/>
-      <c r="YR14"/>
-      <c r="YS14"/>
-      <c r="YT14"/>
-      <c r="YU14"/>
-      <c r="YV14"/>
-      <c r="YW14"/>
-      <c r="YX14"/>
-      <c r="YY14"/>
-      <c r="YZ14"/>
-      <c r="ZA14"/>
-      <c r="ZB14"/>
-      <c r="ZC14"/>
-      <c r="ZD14"/>
-      <c r="ZE14"/>
-      <c r="ZF14"/>
-      <c r="ZG14"/>
-      <c r="ZH14"/>
-      <c r="ZI14"/>
-      <c r="ZJ14"/>
-      <c r="ZK14"/>
-      <c r="ZL14"/>
-      <c r="ZM14"/>
-      <c r="ZN14"/>
-      <c r="ZO14"/>
-      <c r="ZP14"/>
-      <c r="ZQ14"/>
-      <c r="ZR14"/>
-      <c r="ZS14"/>
-      <c r="ZT14"/>
-      <c r="ZU14"/>
-      <c r="ZV14"/>
-      <c r="ZW14"/>
-      <c r="ZX14"/>
-      <c r="ZY14"/>
-      <c r="ZZ14"/>
-      <c r="AAA14"/>
-      <c r="AAB14"/>
-      <c r="AAC14"/>
-      <c r="AAD14"/>
-      <c r="AAE14"/>
-      <c r="AAF14"/>
-      <c r="AAG14"/>
-      <c r="AAH14"/>
-      <c r="AAI14"/>
-      <c r="AAJ14"/>
-      <c r="AAK14"/>
-      <c r="AAL14"/>
-      <c r="AAM14"/>
-      <c r="AAN14"/>
-      <c r="AAO14"/>
-      <c r="AAP14"/>
-      <c r="AAQ14"/>
-      <c r="AAR14"/>
-      <c r="AAS14"/>
-      <c r="AAT14"/>
-      <c r="AAU14"/>
-      <c r="AAV14"/>
-      <c r="AAW14"/>
-      <c r="AAX14"/>
-      <c r="AAY14"/>
-      <c r="AAZ14"/>
-      <c r="ABA14"/>
-      <c r="ABB14"/>
-      <c r="ABC14"/>
-      <c r="ABD14"/>
-      <c r="ABE14"/>
-      <c r="ABF14"/>
-      <c r="ABG14"/>
-      <c r="ABH14"/>
-      <c r="ABI14"/>
-      <c r="ABJ14"/>
-      <c r="ABK14"/>
-      <c r="ABL14"/>
-      <c r="ABM14"/>
-      <c r="ABN14"/>
-      <c r="ABO14"/>
-      <c r="ABP14"/>
-      <c r="ABQ14"/>
-      <c r="ABR14"/>
-      <c r="ABS14"/>
-      <c r="ABT14"/>
-      <c r="ABU14"/>
-      <c r="ABV14"/>
-      <c r="ABW14"/>
-      <c r="ABX14"/>
-      <c r="ABY14"/>
-      <c r="ABZ14"/>
-      <c r="ACA14"/>
-      <c r="ACB14"/>
-      <c r="ACC14"/>
-      <c r="ACD14"/>
-      <c r="ACE14"/>
-      <c r="ACF14"/>
-      <c r="ACG14"/>
-      <c r="ACH14"/>
-      <c r="ACI14"/>
-      <c r="ACJ14"/>
-      <c r="ACK14"/>
-      <c r="ACL14"/>
-      <c r="ACM14"/>
-      <c r="ACN14"/>
-      <c r="ACO14"/>
-      <c r="ACP14"/>
-      <c r="ACQ14"/>
-      <c r="ACR14"/>
-      <c r="ACS14"/>
-      <c r="ACT14"/>
-      <c r="ACU14"/>
-      <c r="ACV14"/>
-      <c r="ACW14"/>
-      <c r="ACX14"/>
-      <c r="ACY14"/>
-      <c r="ACZ14"/>
-      <c r="ADA14"/>
-      <c r="ADB14"/>
-      <c r="ADC14"/>
-      <c r="ADD14"/>
-      <c r="ADE14"/>
-      <c r="ADF14"/>
-      <c r="ADG14"/>
-      <c r="ADH14"/>
-      <c r="ADI14"/>
-      <c r="ADJ14"/>
-      <c r="ADK14"/>
-      <c r="ADL14"/>
-      <c r="ADM14"/>
-      <c r="ADN14"/>
-      <c r="ADO14"/>
-      <c r="ADP14"/>
-      <c r="ADQ14"/>
-      <c r="ADR14"/>
-      <c r="ADS14"/>
-      <c r="ADT14"/>
-      <c r="ADU14"/>
-      <c r="ADV14"/>
-      <c r="ADW14"/>
-      <c r="ADX14"/>
-      <c r="ADY14"/>
-      <c r="ADZ14"/>
-      <c r="AEA14"/>
-      <c r="AEB14"/>
-      <c r="AEC14"/>
-      <c r="AED14"/>
-      <c r="AEE14"/>
-      <c r="AEF14"/>
-      <c r="AEG14"/>
-      <c r="AEH14"/>
-      <c r="AEI14"/>
-      <c r="AEJ14"/>
-      <c r="AEK14"/>
-      <c r="AEL14"/>
-      <c r="AEM14"/>
-      <c r="AEN14"/>
-      <c r="AEO14"/>
-      <c r="AEP14"/>
-      <c r="AEQ14"/>
-      <c r="AER14"/>
-      <c r="AES14"/>
-      <c r="AET14"/>
-      <c r="AEU14"/>
-      <c r="AEV14"/>
-      <c r="AEW14"/>
-      <c r="AEX14"/>
-      <c r="AEY14"/>
-      <c r="AEZ14"/>
-      <c r="AFA14"/>
-      <c r="AFB14"/>
-      <c r="AFC14"/>
-      <c r="AFD14"/>
-      <c r="AFE14"/>
-      <c r="AFF14"/>
-      <c r="AFG14"/>
-      <c r="AFH14"/>
-      <c r="AFI14"/>
-      <c r="AFJ14"/>
-      <c r="AFK14"/>
-      <c r="AFL14"/>
-      <c r="AFM14"/>
-      <c r="AFN14"/>
-      <c r="AFO14"/>
-      <c r="AFP14"/>
-      <c r="AFQ14"/>
-      <c r="AFR14"/>
-      <c r="AFS14"/>
-      <c r="AFT14"/>
-      <c r="AFU14"/>
-      <c r="AFV14"/>
-      <c r="AFW14"/>
-      <c r="AFX14"/>
-      <c r="AFY14"/>
-      <c r="AFZ14"/>
-      <c r="AGA14"/>
-      <c r="AGB14"/>
-      <c r="AGC14"/>
-      <c r="AGD14"/>
-      <c r="AGE14"/>
-      <c r="AGF14"/>
-      <c r="AGG14"/>
-      <c r="AGH14"/>
-      <c r="AGI14"/>
-      <c r="AGJ14"/>
-      <c r="AGK14"/>
-      <c r="AGL14"/>
-      <c r="AGM14"/>
-      <c r="AGN14"/>
-      <c r="AGO14"/>
-      <c r="AGP14"/>
-      <c r="AGQ14"/>
-      <c r="AGR14"/>
-      <c r="AGS14"/>
-      <c r="AGT14"/>
-      <c r="AGU14"/>
-      <c r="AGV14"/>
-      <c r="AGW14"/>
-      <c r="AGX14"/>
-      <c r="AGY14"/>
-      <c r="AGZ14"/>
-      <c r="AHA14"/>
-      <c r="AHB14"/>
-      <c r="AHC14"/>
-      <c r="AHD14"/>
-      <c r="AHE14"/>
-      <c r="AHF14"/>
-      <c r="AHG14"/>
-      <c r="AHH14"/>
-      <c r="AHI14"/>
-      <c r="AHJ14"/>
-      <c r="AHK14"/>
-      <c r="AHL14"/>
-      <c r="AHM14"/>
-      <c r="AHN14"/>
-      <c r="AHO14"/>
-      <c r="AHP14"/>
-      <c r="AHQ14"/>
-      <c r="AHR14"/>
-      <c r="AHS14"/>
-      <c r="AHT14"/>
-      <c r="AHU14"/>
-      <c r="AHV14"/>
-      <c r="AHW14"/>
-      <c r="AHX14"/>
-      <c r="AHY14"/>
-      <c r="AHZ14"/>
-      <c r="AIA14"/>
-      <c r="AIB14"/>
-      <c r="AIC14"/>
-      <c r="AID14"/>
-      <c r="AIE14"/>
-      <c r="AIF14"/>
-      <c r="AIG14"/>
-      <c r="AIH14"/>
-      <c r="AII14"/>
-      <c r="AIJ14"/>
-      <c r="AIK14"/>
-      <c r="AIL14"/>
-      <c r="AIM14"/>
-      <c r="AIN14"/>
-      <c r="AIO14"/>
-      <c r="AIP14"/>
-      <c r="AIQ14"/>
-      <c r="AIR14"/>
-      <c r="AIS14"/>
-      <c r="AIT14"/>
-      <c r="AIU14"/>
-      <c r="AIV14"/>
-      <c r="AIW14"/>
-      <c r="AIX14"/>
-      <c r="AIY14"/>
-      <c r="AIZ14"/>
-      <c r="AJA14"/>
-      <c r="AJB14"/>
-      <c r="AJC14"/>
-      <c r="AJD14"/>
-      <c r="AJE14"/>
-      <c r="AJF14"/>
-      <c r="AJG14"/>
-      <c r="AJH14"/>
-      <c r="AJI14"/>
-      <c r="AJJ14"/>
-      <c r="AJK14"/>
-      <c r="AJL14"/>
-      <c r="AJM14"/>
-      <c r="AJN14"/>
-      <c r="AJO14"/>
-      <c r="AJP14"/>
-      <c r="AJQ14"/>
-      <c r="AJR14"/>
-      <c r="AJS14"/>
-      <c r="AJT14"/>
-      <c r="AJU14"/>
-      <c r="AJV14"/>
-      <c r="AJW14"/>
-      <c r="AJX14"/>
-      <c r="AJY14"/>
-      <c r="AJZ14"/>
-      <c r="AKA14"/>
-      <c r="AKB14"/>
-      <c r="AKC14"/>
-      <c r="AKD14"/>
-      <c r="AKE14"/>
-      <c r="AKF14"/>
-      <c r="AKG14"/>
-      <c r="AKH14"/>
-      <c r="AKI14"/>
-      <c r="AKJ14"/>
-      <c r="AKK14"/>
-      <c r="AKL14"/>
-      <c r="AKM14"/>
-      <c r="AKN14"/>
-      <c r="AKO14"/>
-      <c r="AKP14"/>
-      <c r="AKQ14"/>
-      <c r="AKR14"/>
-      <c r="AKS14"/>
-      <c r="AKT14"/>
-      <c r="AKU14"/>
-      <c r="AKV14"/>
-      <c r="AKW14"/>
-      <c r="AKX14"/>
-      <c r="AKY14"/>
-      <c r="AKZ14"/>
-      <c r="ALA14"/>
-      <c r="ALB14"/>
-      <c r="ALC14"/>
-      <c r="ALD14"/>
-      <c r="ALE14"/>
-      <c r="ALF14"/>
-      <c r="ALG14"/>
-      <c r="ALH14"/>
-      <c r="ALI14"/>
-      <c r="ALJ14"/>
-      <c r="ALK14"/>
-      <c r="ALL14"/>
-      <c r="ALM14"/>
-      <c r="ALN14"/>
-      <c r="ALO14"/>
-      <c r="ALP14"/>
-      <c r="ALQ14"/>
-      <c r="ALR14"/>
-      <c r="ALS14"/>
-      <c r="ALT14"/>
-      <c r="ALU14"/>
-      <c r="ALV14"/>
-      <c r="ALW14"/>
-      <c r="ALX14"/>
-      <c r="ALY14"/>
-      <c r="ALZ14"/>
-      <c r="AMA14"/>
-      <c r="AMB14"/>
-      <c r="AMC14"/>
-      <c r="AMD14"/>
-      <c r="AME14"/>
-      <c r="AMF14"/>
-      <c r="AMG14"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-    </row>
-    <row r="15" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="A15" s="31" t="s">
+    <row r="13" spans="1:1024" s="17" customFormat="1" ht="15" thickBot="1">
+      <c r="A13" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="33">
+        <v>42528</v>
+      </c>
+      <c r="F13" s="33">
+        <v>42528</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:1024" s="17" customFormat="1" ht="15" thickBot="1">
+      <c r="A14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -15197,17 +13411,33 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" s="19" customFormat="1" ht="13.5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+    <row r="16" spans="1:1024" s="11" customFormat="1" thickBot="1">
+      <c r="A16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -15225,16 +13455,26 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:1024" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="27">
         <v>8</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="26">
+        <v>42530</v>
+      </c>
+      <c r="F17" s="26">
+        <v>42530</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -16253,14 +14493,28 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
+    <row r="18" spans="1:1024" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="28">
+        <v>9</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="26">
+        <v>42530</v>
+      </c>
+      <c r="F18" s="26">
+        <v>42530</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -17279,16 +15533,26 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" ht="15" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>9</v>
+    <row r="19" spans="1:1024" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="27">
+        <v>10</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="26">
+        <v>42530</v>
+      </c>
+      <c r="F19" s="26">
+        <v>42531</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -18307,14 +16571,28 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="7"/>
+    <row r="20" spans="1:1024" ht="26.25" thickBot="1">
+      <c r="A20" s="28">
+        <v>11</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="26">
+        <v>42532</v>
+      </c>
+      <c r="F20" s="26">
+        <v>42532</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -19333,15 +17611,25 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024">
-      <c r="A21" s="32" t="s">
-        <v>10</v>
+    <row r="21" spans="1:1024" ht="15" thickBot="1">
+      <c r="A21" s="27">
+        <v>12</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="36">
+        <v>42532</v>
+      </c>
+      <c r="F21" s="36">
+        <v>42532</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -20362,13 +18650,25 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1024" ht="15" thickBot="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="27">
+        <v>13</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="26">
+        <v>42532</v>
+      </c>
+      <c r="F22" s="26">
+        <v>42532</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -21387,257 +19687,3204 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" s="24" customFormat="1" thickBot="1">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:1024" ht="15" thickBot="1">
+      <c r="A23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BX23"/>
+      <c r="BY23"/>
+      <c r="BZ23"/>
+      <c r="CA23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
+      <c r="CD23"/>
+      <c r="CE23"/>
+      <c r="CF23"/>
+      <c r="CG23"/>
+      <c r="CH23"/>
+      <c r="CI23"/>
+      <c r="CJ23"/>
+      <c r="CK23"/>
+      <c r="CL23"/>
+      <c r="CM23"/>
+      <c r="CN23"/>
+      <c r="CO23"/>
+      <c r="CP23"/>
+      <c r="CQ23"/>
+      <c r="CR23"/>
+      <c r="CS23"/>
+      <c r="CT23"/>
+      <c r="CU23"/>
+      <c r="CV23"/>
+      <c r="CW23"/>
+      <c r="CX23"/>
+      <c r="CY23"/>
+      <c r="CZ23"/>
+      <c r="DA23"/>
+      <c r="DB23"/>
+      <c r="DC23"/>
+      <c r="DD23"/>
+      <c r="DE23"/>
+      <c r="DF23"/>
+      <c r="DG23"/>
+      <c r="DH23"/>
+      <c r="DI23"/>
+      <c r="DJ23"/>
+      <c r="DK23"/>
+      <c r="DL23"/>
+      <c r="DM23"/>
+      <c r="DN23"/>
+      <c r="DO23"/>
+      <c r="DP23"/>
+      <c r="DQ23"/>
+      <c r="DR23"/>
+      <c r="DS23"/>
+      <c r="DT23"/>
+      <c r="DU23"/>
+      <c r="DV23"/>
+      <c r="DW23"/>
+      <c r="DX23"/>
+      <c r="DY23"/>
+      <c r="DZ23"/>
+      <c r="EA23"/>
+      <c r="EB23"/>
+      <c r="EC23"/>
+      <c r="ED23"/>
+      <c r="EE23"/>
+      <c r="EF23"/>
+      <c r="EG23"/>
+      <c r="EH23"/>
+      <c r="EI23"/>
+      <c r="EJ23"/>
+      <c r="EK23"/>
+      <c r="EL23"/>
+      <c r="EM23"/>
+      <c r="EN23"/>
+      <c r="EO23"/>
+      <c r="EP23"/>
+      <c r="EQ23"/>
+      <c r="ER23"/>
+      <c r="ES23"/>
+      <c r="ET23"/>
+      <c r="EU23"/>
+      <c r="EV23"/>
+      <c r="EW23"/>
+      <c r="EX23"/>
+      <c r="EY23"/>
+      <c r="EZ23"/>
+      <c r="FA23"/>
+      <c r="FB23"/>
+      <c r="FC23"/>
+      <c r="FD23"/>
+      <c r="FE23"/>
+      <c r="FF23"/>
+      <c r="FG23"/>
+      <c r="FH23"/>
+      <c r="FI23"/>
+      <c r="FJ23"/>
+      <c r="FK23"/>
+      <c r="FL23"/>
+      <c r="FM23"/>
+      <c r="FN23"/>
+      <c r="FO23"/>
+      <c r="FP23"/>
+      <c r="FQ23"/>
+      <c r="FR23"/>
+      <c r="FS23"/>
+      <c r="FT23"/>
+      <c r="FU23"/>
+      <c r="FV23"/>
+      <c r="FW23"/>
+      <c r="FX23"/>
+      <c r="FY23"/>
+      <c r="FZ23"/>
+      <c r="GA23"/>
+      <c r="GB23"/>
+      <c r="GC23"/>
+      <c r="GD23"/>
+      <c r="GE23"/>
+      <c r="GF23"/>
+      <c r="GG23"/>
+      <c r="GH23"/>
+      <c r="GI23"/>
+      <c r="GJ23"/>
+      <c r="GK23"/>
+      <c r="GL23"/>
+      <c r="GM23"/>
+      <c r="GN23"/>
+      <c r="GO23"/>
+      <c r="GP23"/>
+      <c r="GQ23"/>
+      <c r="GR23"/>
+      <c r="GS23"/>
+      <c r="GT23"/>
+      <c r="GU23"/>
+      <c r="GV23"/>
+      <c r="GW23"/>
+      <c r="GX23"/>
+      <c r="GY23"/>
+      <c r="GZ23"/>
+      <c r="HA23"/>
+      <c r="HB23"/>
+      <c r="HC23"/>
+      <c r="HD23"/>
+      <c r="HE23"/>
+      <c r="HF23"/>
+      <c r="HG23"/>
+      <c r="HH23"/>
+      <c r="HI23"/>
+      <c r="HJ23"/>
+      <c r="HK23"/>
+      <c r="HL23"/>
+      <c r="HM23"/>
+      <c r="HN23"/>
+      <c r="HO23"/>
+      <c r="HP23"/>
+      <c r="HQ23"/>
+      <c r="HR23"/>
+      <c r="HS23"/>
+      <c r="HT23"/>
+      <c r="HU23"/>
+      <c r="HV23"/>
+      <c r="HW23"/>
+      <c r="HX23"/>
+      <c r="HY23"/>
+      <c r="HZ23"/>
+      <c r="IA23"/>
+      <c r="IB23"/>
+      <c r="IC23"/>
+      <c r="ID23"/>
+      <c r="IE23"/>
+      <c r="IF23"/>
+      <c r="IG23"/>
+      <c r="IH23"/>
+      <c r="II23"/>
+      <c r="IJ23"/>
+      <c r="IK23"/>
+      <c r="IL23"/>
+      <c r="IM23"/>
+      <c r="IN23"/>
+      <c r="IO23"/>
+      <c r="IP23"/>
+      <c r="IQ23"/>
+      <c r="IR23"/>
+      <c r="IS23"/>
+      <c r="IT23"/>
+      <c r="IU23"/>
+      <c r="IV23"/>
+      <c r="IW23"/>
+      <c r="IX23"/>
+      <c r="IY23"/>
+      <c r="IZ23"/>
+      <c r="JA23"/>
+      <c r="JB23"/>
+      <c r="JC23"/>
+      <c r="JD23"/>
+      <c r="JE23"/>
+      <c r="JF23"/>
+      <c r="JG23"/>
+      <c r="JH23"/>
+      <c r="JI23"/>
+      <c r="JJ23"/>
+      <c r="JK23"/>
+      <c r="JL23"/>
+      <c r="JM23"/>
+      <c r="JN23"/>
+      <c r="JO23"/>
+      <c r="JP23"/>
+      <c r="JQ23"/>
+      <c r="JR23"/>
+      <c r="JS23"/>
+      <c r="JT23"/>
+      <c r="JU23"/>
+      <c r="JV23"/>
+      <c r="JW23"/>
+      <c r="JX23"/>
+      <c r="JY23"/>
+      <c r="JZ23"/>
+      <c r="KA23"/>
+      <c r="KB23"/>
+      <c r="KC23"/>
+      <c r="KD23"/>
+      <c r="KE23"/>
+      <c r="KF23"/>
+      <c r="KG23"/>
+      <c r="KH23"/>
+      <c r="KI23"/>
+      <c r="KJ23"/>
+      <c r="KK23"/>
+      <c r="KL23"/>
+      <c r="KM23"/>
+      <c r="KN23"/>
+      <c r="KO23"/>
+      <c r="KP23"/>
+      <c r="KQ23"/>
+      <c r="KR23"/>
+      <c r="KS23"/>
+      <c r="KT23"/>
+      <c r="KU23"/>
+      <c r="KV23"/>
+      <c r="KW23"/>
+      <c r="KX23"/>
+      <c r="KY23"/>
+      <c r="KZ23"/>
+      <c r="LA23"/>
+      <c r="LB23"/>
+      <c r="LC23"/>
+      <c r="LD23"/>
+      <c r="LE23"/>
+      <c r="LF23"/>
+      <c r="LG23"/>
+      <c r="LH23"/>
+      <c r="LI23"/>
+      <c r="LJ23"/>
+      <c r="LK23"/>
+      <c r="LL23"/>
+      <c r="LM23"/>
+      <c r="LN23"/>
+      <c r="LO23"/>
+      <c r="LP23"/>
+      <c r="LQ23"/>
+      <c r="LR23"/>
+      <c r="LS23"/>
+      <c r="LT23"/>
+      <c r="LU23"/>
+      <c r="LV23"/>
+      <c r="LW23"/>
+      <c r="LX23"/>
+      <c r="LY23"/>
+      <c r="LZ23"/>
+      <c r="MA23"/>
+      <c r="MB23"/>
+      <c r="MC23"/>
+      <c r="MD23"/>
+      <c r="ME23"/>
+      <c r="MF23"/>
+      <c r="MG23"/>
+      <c r="MH23"/>
+      <c r="MI23"/>
+      <c r="MJ23"/>
+      <c r="MK23"/>
+      <c r="ML23"/>
+      <c r="MM23"/>
+      <c r="MN23"/>
+      <c r="MO23"/>
+      <c r="MP23"/>
+      <c r="MQ23"/>
+      <c r="MR23"/>
+      <c r="MS23"/>
+      <c r="MT23"/>
+      <c r="MU23"/>
+      <c r="MV23"/>
+      <c r="MW23"/>
+      <c r="MX23"/>
+      <c r="MY23"/>
+      <c r="MZ23"/>
+      <c r="NA23"/>
+      <c r="NB23"/>
+      <c r="NC23"/>
+      <c r="ND23"/>
+      <c r="NE23"/>
+      <c r="NF23"/>
+      <c r="NG23"/>
+      <c r="NH23"/>
+      <c r="NI23"/>
+      <c r="NJ23"/>
+      <c r="NK23"/>
+      <c r="NL23"/>
+      <c r="NM23"/>
+      <c r="NN23"/>
+      <c r="NO23"/>
+      <c r="NP23"/>
+      <c r="NQ23"/>
+      <c r="NR23"/>
+      <c r="NS23"/>
+      <c r="NT23"/>
+      <c r="NU23"/>
+      <c r="NV23"/>
+      <c r="NW23"/>
+      <c r="NX23"/>
+      <c r="NY23"/>
+      <c r="NZ23"/>
+      <c r="OA23"/>
+      <c r="OB23"/>
+      <c r="OC23"/>
+      <c r="OD23"/>
+      <c r="OE23"/>
+      <c r="OF23"/>
+      <c r="OG23"/>
+      <c r="OH23"/>
+      <c r="OI23"/>
+      <c r="OJ23"/>
+      <c r="OK23"/>
+      <c r="OL23"/>
+      <c r="OM23"/>
+      <c r="ON23"/>
+      <c r="OO23"/>
+      <c r="OP23"/>
+      <c r="OQ23"/>
+      <c r="OR23"/>
+      <c r="OS23"/>
+      <c r="OT23"/>
+      <c r="OU23"/>
+      <c r="OV23"/>
+      <c r="OW23"/>
+      <c r="OX23"/>
+      <c r="OY23"/>
+      <c r="OZ23"/>
+      <c r="PA23"/>
+      <c r="PB23"/>
+      <c r="PC23"/>
+      <c r="PD23"/>
+      <c r="PE23"/>
+      <c r="PF23"/>
+      <c r="PG23"/>
+      <c r="PH23"/>
+      <c r="PI23"/>
+      <c r="PJ23"/>
+      <c r="PK23"/>
+      <c r="PL23"/>
+      <c r="PM23"/>
+      <c r="PN23"/>
+      <c r="PO23"/>
+      <c r="PP23"/>
+      <c r="PQ23"/>
+      <c r="PR23"/>
+      <c r="PS23"/>
+      <c r="PT23"/>
+      <c r="PU23"/>
+      <c r="PV23"/>
+      <c r="PW23"/>
+      <c r="PX23"/>
+      <c r="PY23"/>
+      <c r="PZ23"/>
+      <c r="QA23"/>
+      <c r="QB23"/>
+      <c r="QC23"/>
+      <c r="QD23"/>
+      <c r="QE23"/>
+      <c r="QF23"/>
+      <c r="QG23"/>
+      <c r="QH23"/>
+      <c r="QI23"/>
+      <c r="QJ23"/>
+      <c r="QK23"/>
+      <c r="QL23"/>
+      <c r="QM23"/>
+      <c r="QN23"/>
+      <c r="QO23"/>
+      <c r="QP23"/>
+      <c r="QQ23"/>
+      <c r="QR23"/>
+      <c r="QS23"/>
+      <c r="QT23"/>
+      <c r="QU23"/>
+      <c r="QV23"/>
+      <c r="QW23"/>
+      <c r="QX23"/>
+      <c r="QY23"/>
+      <c r="QZ23"/>
+      <c r="RA23"/>
+      <c r="RB23"/>
+      <c r="RC23"/>
+      <c r="RD23"/>
+      <c r="RE23"/>
+      <c r="RF23"/>
+      <c r="RG23"/>
+      <c r="RH23"/>
+      <c r="RI23"/>
+      <c r="RJ23"/>
+      <c r="RK23"/>
+      <c r="RL23"/>
+      <c r="RM23"/>
+      <c r="RN23"/>
+      <c r="RO23"/>
+      <c r="RP23"/>
+      <c r="RQ23"/>
+      <c r="RR23"/>
+      <c r="RS23"/>
+      <c r="RT23"/>
+      <c r="RU23"/>
+      <c r="RV23"/>
+      <c r="RW23"/>
+      <c r="RX23"/>
+      <c r="RY23"/>
+      <c r="RZ23"/>
+      <c r="SA23"/>
+      <c r="SB23"/>
+      <c r="SC23"/>
+      <c r="SD23"/>
+      <c r="SE23"/>
+      <c r="SF23"/>
+      <c r="SG23"/>
+      <c r="SH23"/>
+      <c r="SI23"/>
+      <c r="SJ23"/>
+      <c r="SK23"/>
+      <c r="SL23"/>
+      <c r="SM23"/>
+      <c r="SN23"/>
+      <c r="SO23"/>
+      <c r="SP23"/>
+      <c r="SQ23"/>
+      <c r="SR23"/>
+      <c r="SS23"/>
+      <c r="ST23"/>
+      <c r="SU23"/>
+      <c r="SV23"/>
+      <c r="SW23"/>
+      <c r="SX23"/>
+      <c r="SY23"/>
+      <c r="SZ23"/>
+      <c r="TA23"/>
+      <c r="TB23"/>
+      <c r="TC23"/>
+      <c r="TD23"/>
+      <c r="TE23"/>
+      <c r="TF23"/>
+      <c r="TG23"/>
+      <c r="TH23"/>
+      <c r="TI23"/>
+      <c r="TJ23"/>
+      <c r="TK23"/>
+      <c r="TL23"/>
+      <c r="TM23"/>
+      <c r="TN23"/>
+      <c r="TO23"/>
+      <c r="TP23"/>
+      <c r="TQ23"/>
+      <c r="TR23"/>
+      <c r="TS23"/>
+      <c r="TT23"/>
+      <c r="TU23"/>
+      <c r="TV23"/>
+      <c r="TW23"/>
+      <c r="TX23"/>
+      <c r="TY23"/>
+      <c r="TZ23"/>
+      <c r="UA23"/>
+      <c r="UB23"/>
+      <c r="UC23"/>
+      <c r="UD23"/>
+      <c r="UE23"/>
+      <c r="UF23"/>
+      <c r="UG23"/>
+      <c r="UH23"/>
+      <c r="UI23"/>
+      <c r="UJ23"/>
+      <c r="UK23"/>
+      <c r="UL23"/>
+      <c r="UM23"/>
+      <c r="UN23"/>
+      <c r="UO23"/>
+      <c r="UP23"/>
+      <c r="UQ23"/>
+      <c r="UR23"/>
+      <c r="US23"/>
+      <c r="UT23"/>
+      <c r="UU23"/>
+      <c r="UV23"/>
+      <c r="UW23"/>
+      <c r="UX23"/>
+      <c r="UY23"/>
+      <c r="UZ23"/>
+      <c r="VA23"/>
+      <c r="VB23"/>
+      <c r="VC23"/>
+      <c r="VD23"/>
+      <c r="VE23"/>
+      <c r="VF23"/>
+      <c r="VG23"/>
+      <c r="VH23"/>
+      <c r="VI23"/>
+      <c r="VJ23"/>
+      <c r="VK23"/>
+      <c r="VL23"/>
+      <c r="VM23"/>
+      <c r="VN23"/>
+      <c r="VO23"/>
+      <c r="VP23"/>
+      <c r="VQ23"/>
+      <c r="VR23"/>
+      <c r="VS23"/>
+      <c r="VT23"/>
+      <c r="VU23"/>
+      <c r="VV23"/>
+      <c r="VW23"/>
+      <c r="VX23"/>
+      <c r="VY23"/>
+      <c r="VZ23"/>
+      <c r="WA23"/>
+      <c r="WB23"/>
+      <c r="WC23"/>
+      <c r="WD23"/>
+      <c r="WE23"/>
+      <c r="WF23"/>
+      <c r="WG23"/>
+      <c r="WH23"/>
+      <c r="WI23"/>
+      <c r="WJ23"/>
+      <c r="WK23"/>
+      <c r="WL23"/>
+      <c r="WM23"/>
+      <c r="WN23"/>
+      <c r="WO23"/>
+      <c r="WP23"/>
+      <c r="WQ23"/>
+      <c r="WR23"/>
+      <c r="WS23"/>
+      <c r="WT23"/>
+      <c r="WU23"/>
+      <c r="WV23"/>
+      <c r="WW23"/>
+      <c r="WX23"/>
+      <c r="WY23"/>
+      <c r="WZ23"/>
+      <c r="XA23"/>
+      <c r="XB23"/>
+      <c r="XC23"/>
+      <c r="XD23"/>
+      <c r="XE23"/>
+      <c r="XF23"/>
+      <c r="XG23"/>
+      <c r="XH23"/>
+      <c r="XI23"/>
+      <c r="XJ23"/>
+      <c r="XK23"/>
+      <c r="XL23"/>
+      <c r="XM23"/>
+      <c r="XN23"/>
+      <c r="XO23"/>
+      <c r="XP23"/>
+      <c r="XQ23"/>
+      <c r="XR23"/>
+      <c r="XS23"/>
+      <c r="XT23"/>
+      <c r="XU23"/>
+      <c r="XV23"/>
+      <c r="XW23"/>
+      <c r="XX23"/>
+      <c r="XY23"/>
+      <c r="XZ23"/>
+      <c r="YA23"/>
+      <c r="YB23"/>
+      <c r="YC23"/>
+      <c r="YD23"/>
+      <c r="YE23"/>
+      <c r="YF23"/>
+      <c r="YG23"/>
+      <c r="YH23"/>
+      <c r="YI23"/>
+      <c r="YJ23"/>
+      <c r="YK23"/>
+      <c r="YL23"/>
+      <c r="YM23"/>
+      <c r="YN23"/>
+      <c r="YO23"/>
+      <c r="YP23"/>
+      <c r="YQ23"/>
+      <c r="YR23"/>
+      <c r="YS23"/>
+      <c r="YT23"/>
+      <c r="YU23"/>
+      <c r="YV23"/>
+      <c r="YW23"/>
+      <c r="YX23"/>
+      <c r="YY23"/>
+      <c r="YZ23"/>
+      <c r="ZA23"/>
+      <c r="ZB23"/>
+      <c r="ZC23"/>
+      <c r="ZD23"/>
+      <c r="ZE23"/>
+      <c r="ZF23"/>
+      <c r="ZG23"/>
+      <c r="ZH23"/>
+      <c r="ZI23"/>
+      <c r="ZJ23"/>
+      <c r="ZK23"/>
+      <c r="ZL23"/>
+      <c r="ZM23"/>
+      <c r="ZN23"/>
+      <c r="ZO23"/>
+      <c r="ZP23"/>
+      <c r="ZQ23"/>
+      <c r="ZR23"/>
+      <c r="ZS23"/>
+      <c r="ZT23"/>
+      <c r="ZU23"/>
+      <c r="ZV23"/>
+      <c r="ZW23"/>
+      <c r="ZX23"/>
+      <c r="ZY23"/>
+      <c r="ZZ23"/>
+      <c r="AAA23"/>
+      <c r="AAB23"/>
+      <c r="AAC23"/>
+      <c r="AAD23"/>
+      <c r="AAE23"/>
+      <c r="AAF23"/>
+      <c r="AAG23"/>
+      <c r="AAH23"/>
+      <c r="AAI23"/>
+      <c r="AAJ23"/>
+      <c r="AAK23"/>
+      <c r="AAL23"/>
+      <c r="AAM23"/>
+      <c r="AAN23"/>
+      <c r="AAO23"/>
+      <c r="AAP23"/>
+      <c r="AAQ23"/>
+      <c r="AAR23"/>
+      <c r="AAS23"/>
+      <c r="AAT23"/>
+      <c r="AAU23"/>
+      <c r="AAV23"/>
+      <c r="AAW23"/>
+      <c r="AAX23"/>
+      <c r="AAY23"/>
+      <c r="AAZ23"/>
+      <c r="ABA23"/>
+      <c r="ABB23"/>
+      <c r="ABC23"/>
+      <c r="ABD23"/>
+      <c r="ABE23"/>
+      <c r="ABF23"/>
+      <c r="ABG23"/>
+      <c r="ABH23"/>
+      <c r="ABI23"/>
+      <c r="ABJ23"/>
+      <c r="ABK23"/>
+      <c r="ABL23"/>
+      <c r="ABM23"/>
+      <c r="ABN23"/>
+      <c r="ABO23"/>
+      <c r="ABP23"/>
+      <c r="ABQ23"/>
+      <c r="ABR23"/>
+      <c r="ABS23"/>
+      <c r="ABT23"/>
+      <c r="ABU23"/>
+      <c r="ABV23"/>
+      <c r="ABW23"/>
+      <c r="ABX23"/>
+      <c r="ABY23"/>
+      <c r="ABZ23"/>
+      <c r="ACA23"/>
+      <c r="ACB23"/>
+      <c r="ACC23"/>
+      <c r="ACD23"/>
+      <c r="ACE23"/>
+      <c r="ACF23"/>
+      <c r="ACG23"/>
+      <c r="ACH23"/>
+      <c r="ACI23"/>
+      <c r="ACJ23"/>
+      <c r="ACK23"/>
+      <c r="ACL23"/>
+      <c r="ACM23"/>
+      <c r="ACN23"/>
+      <c r="ACO23"/>
+      <c r="ACP23"/>
+      <c r="ACQ23"/>
+      <c r="ACR23"/>
+      <c r="ACS23"/>
+      <c r="ACT23"/>
+      <c r="ACU23"/>
+      <c r="ACV23"/>
+      <c r="ACW23"/>
+      <c r="ACX23"/>
+      <c r="ACY23"/>
+      <c r="ACZ23"/>
+      <c r="ADA23"/>
+      <c r="ADB23"/>
+      <c r="ADC23"/>
+      <c r="ADD23"/>
+      <c r="ADE23"/>
+      <c r="ADF23"/>
+      <c r="ADG23"/>
+      <c r="ADH23"/>
+      <c r="ADI23"/>
+      <c r="ADJ23"/>
+      <c r="ADK23"/>
+      <c r="ADL23"/>
+      <c r="ADM23"/>
+      <c r="ADN23"/>
+      <c r="ADO23"/>
+      <c r="ADP23"/>
+      <c r="ADQ23"/>
+      <c r="ADR23"/>
+      <c r="ADS23"/>
+      <c r="ADT23"/>
+      <c r="ADU23"/>
+      <c r="ADV23"/>
+      <c r="ADW23"/>
+      <c r="ADX23"/>
+      <c r="ADY23"/>
+      <c r="ADZ23"/>
+      <c r="AEA23"/>
+      <c r="AEB23"/>
+      <c r="AEC23"/>
+      <c r="AED23"/>
+      <c r="AEE23"/>
+      <c r="AEF23"/>
+      <c r="AEG23"/>
+      <c r="AEH23"/>
+      <c r="AEI23"/>
+      <c r="AEJ23"/>
+      <c r="AEK23"/>
+      <c r="AEL23"/>
+      <c r="AEM23"/>
+      <c r="AEN23"/>
+      <c r="AEO23"/>
+      <c r="AEP23"/>
+      <c r="AEQ23"/>
+      <c r="AER23"/>
+      <c r="AES23"/>
+      <c r="AET23"/>
+      <c r="AEU23"/>
+      <c r="AEV23"/>
+      <c r="AEW23"/>
+      <c r="AEX23"/>
+      <c r="AEY23"/>
+      <c r="AEZ23"/>
+      <c r="AFA23"/>
+      <c r="AFB23"/>
+      <c r="AFC23"/>
+      <c r="AFD23"/>
+      <c r="AFE23"/>
+      <c r="AFF23"/>
+      <c r="AFG23"/>
+      <c r="AFH23"/>
+      <c r="AFI23"/>
+      <c r="AFJ23"/>
+      <c r="AFK23"/>
+      <c r="AFL23"/>
+      <c r="AFM23"/>
+      <c r="AFN23"/>
+      <c r="AFO23"/>
+      <c r="AFP23"/>
+      <c r="AFQ23"/>
+      <c r="AFR23"/>
+      <c r="AFS23"/>
+      <c r="AFT23"/>
+      <c r="AFU23"/>
+      <c r="AFV23"/>
+      <c r="AFW23"/>
+      <c r="AFX23"/>
+      <c r="AFY23"/>
+      <c r="AFZ23"/>
+      <c r="AGA23"/>
+      <c r="AGB23"/>
+      <c r="AGC23"/>
+      <c r="AGD23"/>
+      <c r="AGE23"/>
+      <c r="AGF23"/>
+      <c r="AGG23"/>
+      <c r="AGH23"/>
+      <c r="AGI23"/>
+      <c r="AGJ23"/>
+      <c r="AGK23"/>
+      <c r="AGL23"/>
+      <c r="AGM23"/>
+      <c r="AGN23"/>
+      <c r="AGO23"/>
+      <c r="AGP23"/>
+      <c r="AGQ23"/>
+      <c r="AGR23"/>
+      <c r="AGS23"/>
+      <c r="AGT23"/>
+      <c r="AGU23"/>
+      <c r="AGV23"/>
+      <c r="AGW23"/>
+      <c r="AGX23"/>
+      <c r="AGY23"/>
+      <c r="AGZ23"/>
+      <c r="AHA23"/>
+      <c r="AHB23"/>
+      <c r="AHC23"/>
+      <c r="AHD23"/>
+      <c r="AHE23"/>
+      <c r="AHF23"/>
+      <c r="AHG23"/>
+      <c r="AHH23"/>
+      <c r="AHI23"/>
+      <c r="AHJ23"/>
+      <c r="AHK23"/>
+      <c r="AHL23"/>
+      <c r="AHM23"/>
+      <c r="AHN23"/>
+      <c r="AHO23"/>
+      <c r="AHP23"/>
+      <c r="AHQ23"/>
+      <c r="AHR23"/>
+      <c r="AHS23"/>
+      <c r="AHT23"/>
+      <c r="AHU23"/>
+      <c r="AHV23"/>
+      <c r="AHW23"/>
+      <c r="AHX23"/>
+      <c r="AHY23"/>
+      <c r="AHZ23"/>
+      <c r="AIA23"/>
+      <c r="AIB23"/>
+      <c r="AIC23"/>
+      <c r="AID23"/>
+      <c r="AIE23"/>
+      <c r="AIF23"/>
+      <c r="AIG23"/>
+      <c r="AIH23"/>
+      <c r="AII23"/>
+      <c r="AIJ23"/>
+      <c r="AIK23"/>
+      <c r="AIL23"/>
+      <c r="AIM23"/>
+      <c r="AIN23"/>
+      <c r="AIO23"/>
+      <c r="AIP23"/>
+      <c r="AIQ23"/>
+      <c r="AIR23"/>
+      <c r="AIS23"/>
+      <c r="AIT23"/>
+      <c r="AIU23"/>
+      <c r="AIV23"/>
+      <c r="AIW23"/>
+      <c r="AIX23"/>
+      <c r="AIY23"/>
+      <c r="AIZ23"/>
+      <c r="AJA23"/>
+      <c r="AJB23"/>
+      <c r="AJC23"/>
+      <c r="AJD23"/>
+      <c r="AJE23"/>
+      <c r="AJF23"/>
+      <c r="AJG23"/>
+      <c r="AJH23"/>
+      <c r="AJI23"/>
+      <c r="AJJ23"/>
+      <c r="AJK23"/>
+      <c r="AJL23"/>
+      <c r="AJM23"/>
+      <c r="AJN23"/>
+      <c r="AJO23"/>
+      <c r="AJP23"/>
+      <c r="AJQ23"/>
+      <c r="AJR23"/>
+      <c r="AJS23"/>
+      <c r="AJT23"/>
+      <c r="AJU23"/>
+      <c r="AJV23"/>
+      <c r="AJW23"/>
+      <c r="AJX23"/>
+      <c r="AJY23"/>
+      <c r="AJZ23"/>
+      <c r="AKA23"/>
+      <c r="AKB23"/>
+      <c r="AKC23"/>
+      <c r="AKD23"/>
+      <c r="AKE23"/>
+      <c r="AKF23"/>
+      <c r="AKG23"/>
+      <c r="AKH23"/>
+      <c r="AKI23"/>
+      <c r="AKJ23"/>
+      <c r="AKK23"/>
+      <c r="AKL23"/>
+      <c r="AKM23"/>
+      <c r="AKN23"/>
+      <c r="AKO23"/>
+      <c r="AKP23"/>
+      <c r="AKQ23"/>
+      <c r="AKR23"/>
+      <c r="AKS23"/>
+      <c r="AKT23"/>
+      <c r="AKU23"/>
+      <c r="AKV23"/>
+      <c r="AKW23"/>
+      <c r="AKX23"/>
+      <c r="AKY23"/>
+      <c r="AKZ23"/>
+      <c r="ALA23"/>
+      <c r="ALB23"/>
+      <c r="ALC23"/>
+      <c r="ALD23"/>
+      <c r="ALE23"/>
+      <c r="ALF23"/>
+      <c r="ALG23"/>
+      <c r="ALH23"/>
+      <c r="ALI23"/>
+      <c r="ALJ23"/>
+      <c r="ALK23"/>
+      <c r="ALL23"/>
+      <c r="ALM23"/>
+      <c r="ALN23"/>
+      <c r="ALO23"/>
+      <c r="ALP23"/>
+      <c r="ALQ23"/>
+      <c r="ALR23"/>
+      <c r="ALS23"/>
+      <c r="ALT23"/>
+      <c r="ALU23"/>
+      <c r="ALV23"/>
+      <c r="ALW23"/>
+      <c r="ALX23"/>
+      <c r="ALY23"/>
+      <c r="ALZ23"/>
+      <c r="AMA23"/>
+      <c r="AMB23"/>
+      <c r="AMC23"/>
+      <c r="AMD23"/>
+      <c r="AME23"/>
+      <c r="AMF23"/>
+      <c r="AMG23"/>
+      <c r="AMH23"/>
+      <c r="AMI23"/>
+      <c r="AMJ23"/>
+    </row>
+    <row r="24" spans="1:1024" ht="15" thickBot="1">
+      <c r="A24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+      <c r="CP24"/>
+      <c r="CQ24"/>
+      <c r="CR24"/>
+      <c r="CS24"/>
+      <c r="CT24"/>
+      <c r="CU24"/>
+      <c r="CV24"/>
+      <c r="CW24"/>
+      <c r="CX24"/>
+      <c r="CY24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
+      <c r="DB24"/>
+      <c r="DC24"/>
+      <c r="DD24"/>
+      <c r="DE24"/>
+      <c r="DF24"/>
+      <c r="DG24"/>
+      <c r="DH24"/>
+      <c r="DI24"/>
+      <c r="DJ24"/>
+      <c r="DK24"/>
+      <c r="DL24"/>
+      <c r="DM24"/>
+      <c r="DN24"/>
+      <c r="DO24"/>
+      <c r="DP24"/>
+      <c r="DQ24"/>
+      <c r="DR24"/>
+      <c r="DS24"/>
+      <c r="DT24"/>
+      <c r="DU24"/>
+      <c r="DV24"/>
+      <c r="DW24"/>
+      <c r="DX24"/>
+      <c r="DY24"/>
+      <c r="DZ24"/>
+      <c r="EA24"/>
+      <c r="EB24"/>
+      <c r="EC24"/>
+      <c r="ED24"/>
+      <c r="EE24"/>
+      <c r="EF24"/>
+      <c r="EG24"/>
+      <c r="EH24"/>
+      <c r="EI24"/>
+      <c r="EJ24"/>
+      <c r="EK24"/>
+      <c r="EL24"/>
+      <c r="EM24"/>
+      <c r="EN24"/>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="EQ24"/>
+      <c r="ER24"/>
+      <c r="ES24"/>
+      <c r="ET24"/>
+      <c r="EU24"/>
+      <c r="EV24"/>
+      <c r="EW24"/>
+      <c r="EX24"/>
+      <c r="EY24"/>
+      <c r="EZ24"/>
+      <c r="FA24"/>
+      <c r="FB24"/>
+      <c r="FC24"/>
+      <c r="FD24"/>
+      <c r="FE24"/>
+      <c r="FF24"/>
+      <c r="FG24"/>
+      <c r="FH24"/>
+      <c r="FI24"/>
+      <c r="FJ24"/>
+      <c r="FK24"/>
+      <c r="FL24"/>
+      <c r="FM24"/>
+      <c r="FN24"/>
+      <c r="FO24"/>
+      <c r="FP24"/>
+      <c r="FQ24"/>
+      <c r="FR24"/>
+      <c r="FS24"/>
+      <c r="FT24"/>
+      <c r="FU24"/>
+      <c r="FV24"/>
+      <c r="FW24"/>
+      <c r="FX24"/>
+      <c r="FY24"/>
+      <c r="FZ24"/>
+      <c r="GA24"/>
+      <c r="GB24"/>
+      <c r="GC24"/>
+      <c r="GD24"/>
+      <c r="GE24"/>
+      <c r="GF24"/>
+      <c r="GG24"/>
+      <c r="GH24"/>
+      <c r="GI24"/>
+      <c r="GJ24"/>
+      <c r="GK24"/>
+      <c r="GL24"/>
+      <c r="GM24"/>
+      <c r="GN24"/>
+      <c r="GO24"/>
+      <c r="GP24"/>
+      <c r="GQ24"/>
+      <c r="GR24"/>
+      <c r="GS24"/>
+      <c r="GT24"/>
+      <c r="GU24"/>
+      <c r="GV24"/>
+      <c r="GW24"/>
+      <c r="GX24"/>
+      <c r="GY24"/>
+      <c r="GZ24"/>
+      <c r="HA24"/>
+      <c r="HB24"/>
+      <c r="HC24"/>
+      <c r="HD24"/>
+      <c r="HE24"/>
+      <c r="HF24"/>
+      <c r="HG24"/>
+      <c r="HH24"/>
+      <c r="HI24"/>
+      <c r="HJ24"/>
+      <c r="HK24"/>
+      <c r="HL24"/>
+      <c r="HM24"/>
+      <c r="HN24"/>
+      <c r="HO24"/>
+      <c r="HP24"/>
+      <c r="HQ24"/>
+      <c r="HR24"/>
+      <c r="HS24"/>
+      <c r="HT24"/>
+      <c r="HU24"/>
+      <c r="HV24"/>
+      <c r="HW24"/>
+      <c r="HX24"/>
+      <c r="HY24"/>
+      <c r="HZ24"/>
+      <c r="IA24"/>
+      <c r="IB24"/>
+      <c r="IC24"/>
+      <c r="ID24"/>
+      <c r="IE24"/>
+      <c r="IF24"/>
+      <c r="IG24"/>
+      <c r="IH24"/>
+      <c r="II24"/>
+      <c r="IJ24"/>
+      <c r="IK24"/>
+      <c r="IL24"/>
+      <c r="IM24"/>
+      <c r="IN24"/>
+      <c r="IO24"/>
+      <c r="IP24"/>
+      <c r="IQ24"/>
+      <c r="IR24"/>
+      <c r="IS24"/>
+      <c r="IT24"/>
+      <c r="IU24"/>
+      <c r="IV24"/>
+      <c r="IW24"/>
+      <c r="IX24"/>
+      <c r="IY24"/>
+      <c r="IZ24"/>
+      <c r="JA24"/>
+      <c r="JB24"/>
+      <c r="JC24"/>
+      <c r="JD24"/>
+      <c r="JE24"/>
+      <c r="JF24"/>
+      <c r="JG24"/>
+      <c r="JH24"/>
+      <c r="JI24"/>
+      <c r="JJ24"/>
+      <c r="JK24"/>
+      <c r="JL24"/>
+      <c r="JM24"/>
+      <c r="JN24"/>
+      <c r="JO24"/>
+      <c r="JP24"/>
+      <c r="JQ24"/>
+      <c r="JR24"/>
+      <c r="JS24"/>
+      <c r="JT24"/>
+      <c r="JU24"/>
+      <c r="JV24"/>
+      <c r="JW24"/>
+      <c r="JX24"/>
+      <c r="JY24"/>
+      <c r="JZ24"/>
+      <c r="KA24"/>
+      <c r="KB24"/>
+      <c r="KC24"/>
+      <c r="KD24"/>
+      <c r="KE24"/>
+      <c r="KF24"/>
+      <c r="KG24"/>
+      <c r="KH24"/>
+      <c r="KI24"/>
+      <c r="KJ24"/>
+      <c r="KK24"/>
+      <c r="KL24"/>
+      <c r="KM24"/>
+      <c r="KN24"/>
+      <c r="KO24"/>
+      <c r="KP24"/>
+      <c r="KQ24"/>
+      <c r="KR24"/>
+      <c r="KS24"/>
+      <c r="KT24"/>
+      <c r="KU24"/>
+      <c r="KV24"/>
+      <c r="KW24"/>
+      <c r="KX24"/>
+      <c r="KY24"/>
+      <c r="KZ24"/>
+      <c r="LA24"/>
+      <c r="LB24"/>
+      <c r="LC24"/>
+      <c r="LD24"/>
+      <c r="LE24"/>
+      <c r="LF24"/>
+      <c r="LG24"/>
+      <c r="LH24"/>
+      <c r="LI24"/>
+      <c r="LJ24"/>
+      <c r="LK24"/>
+      <c r="LL24"/>
+      <c r="LM24"/>
+      <c r="LN24"/>
+      <c r="LO24"/>
+      <c r="LP24"/>
+      <c r="LQ24"/>
+      <c r="LR24"/>
+      <c r="LS24"/>
+      <c r="LT24"/>
+      <c r="LU24"/>
+      <c r="LV24"/>
+      <c r="LW24"/>
+      <c r="LX24"/>
+      <c r="LY24"/>
+      <c r="LZ24"/>
+      <c r="MA24"/>
+      <c r="MB24"/>
+      <c r="MC24"/>
+      <c r="MD24"/>
+      <c r="ME24"/>
+      <c r="MF24"/>
+      <c r="MG24"/>
+      <c r="MH24"/>
+      <c r="MI24"/>
+      <c r="MJ24"/>
+      <c r="MK24"/>
+      <c r="ML24"/>
+      <c r="MM24"/>
+      <c r="MN24"/>
+      <c r="MO24"/>
+      <c r="MP24"/>
+      <c r="MQ24"/>
+      <c r="MR24"/>
+      <c r="MS24"/>
+      <c r="MT24"/>
+      <c r="MU24"/>
+      <c r="MV24"/>
+      <c r="MW24"/>
+      <c r="MX24"/>
+      <c r="MY24"/>
+      <c r="MZ24"/>
+      <c r="NA24"/>
+      <c r="NB24"/>
+      <c r="NC24"/>
+      <c r="ND24"/>
+      <c r="NE24"/>
+      <c r="NF24"/>
+      <c r="NG24"/>
+      <c r="NH24"/>
+      <c r="NI24"/>
+      <c r="NJ24"/>
+      <c r="NK24"/>
+      <c r="NL24"/>
+      <c r="NM24"/>
+      <c r="NN24"/>
+      <c r="NO24"/>
+      <c r="NP24"/>
+      <c r="NQ24"/>
+      <c r="NR24"/>
+      <c r="NS24"/>
+      <c r="NT24"/>
+      <c r="NU24"/>
+      <c r="NV24"/>
+      <c r="NW24"/>
+      <c r="NX24"/>
+      <c r="NY24"/>
+      <c r="NZ24"/>
+      <c r="OA24"/>
+      <c r="OB24"/>
+      <c r="OC24"/>
+      <c r="OD24"/>
+      <c r="OE24"/>
+      <c r="OF24"/>
+      <c r="OG24"/>
+      <c r="OH24"/>
+      <c r="OI24"/>
+      <c r="OJ24"/>
+      <c r="OK24"/>
+      <c r="OL24"/>
+      <c r="OM24"/>
+      <c r="ON24"/>
+      <c r="OO24"/>
+      <c r="OP24"/>
+      <c r="OQ24"/>
+      <c r="OR24"/>
+      <c r="OS24"/>
+      <c r="OT24"/>
+      <c r="OU24"/>
+      <c r="OV24"/>
+      <c r="OW24"/>
+      <c r="OX24"/>
+      <c r="OY24"/>
+      <c r="OZ24"/>
+      <c r="PA24"/>
+      <c r="PB24"/>
+      <c r="PC24"/>
+      <c r="PD24"/>
+      <c r="PE24"/>
+      <c r="PF24"/>
+      <c r="PG24"/>
+      <c r="PH24"/>
+      <c r="PI24"/>
+      <c r="PJ24"/>
+      <c r="PK24"/>
+      <c r="PL24"/>
+      <c r="PM24"/>
+      <c r="PN24"/>
+      <c r="PO24"/>
+      <c r="PP24"/>
+      <c r="PQ24"/>
+      <c r="PR24"/>
+      <c r="PS24"/>
+      <c r="PT24"/>
+      <c r="PU24"/>
+      <c r="PV24"/>
+      <c r="PW24"/>
+      <c r="PX24"/>
+      <c r="PY24"/>
+      <c r="PZ24"/>
+      <c r="QA24"/>
+      <c r="QB24"/>
+      <c r="QC24"/>
+      <c r="QD24"/>
+      <c r="QE24"/>
+      <c r="QF24"/>
+      <c r="QG24"/>
+      <c r="QH24"/>
+      <c r="QI24"/>
+      <c r="QJ24"/>
+      <c r="QK24"/>
+      <c r="QL24"/>
+      <c r="QM24"/>
+      <c r="QN24"/>
+      <c r="QO24"/>
+      <c r="QP24"/>
+      <c r="QQ24"/>
+      <c r="QR24"/>
+      <c r="QS24"/>
+      <c r="QT24"/>
+      <c r="QU24"/>
+      <c r="QV24"/>
+      <c r="QW24"/>
+      <c r="QX24"/>
+      <c r="QY24"/>
+      <c r="QZ24"/>
+      <c r="RA24"/>
+      <c r="RB24"/>
+      <c r="RC24"/>
+      <c r="RD24"/>
+      <c r="RE24"/>
+      <c r="RF24"/>
+      <c r="RG24"/>
+      <c r="RH24"/>
+      <c r="RI24"/>
+      <c r="RJ24"/>
+      <c r="RK24"/>
+      <c r="RL24"/>
+      <c r="RM24"/>
+      <c r="RN24"/>
+      <c r="RO24"/>
+      <c r="RP24"/>
+      <c r="RQ24"/>
+      <c r="RR24"/>
+      <c r="RS24"/>
+      <c r="RT24"/>
+      <c r="RU24"/>
+      <c r="RV24"/>
+      <c r="RW24"/>
+      <c r="RX24"/>
+      <c r="RY24"/>
+      <c r="RZ24"/>
+      <c r="SA24"/>
+      <c r="SB24"/>
+      <c r="SC24"/>
+      <c r="SD24"/>
+      <c r="SE24"/>
+      <c r="SF24"/>
+      <c r="SG24"/>
+      <c r="SH24"/>
+      <c r="SI24"/>
+      <c r="SJ24"/>
+      <c r="SK24"/>
+      <c r="SL24"/>
+      <c r="SM24"/>
+      <c r="SN24"/>
+      <c r="SO24"/>
+      <c r="SP24"/>
+      <c r="SQ24"/>
+      <c r="SR24"/>
+      <c r="SS24"/>
+      <c r="ST24"/>
+      <c r="SU24"/>
+      <c r="SV24"/>
+      <c r="SW24"/>
+      <c r="SX24"/>
+      <c r="SY24"/>
+      <c r="SZ24"/>
+      <c r="TA24"/>
+      <c r="TB24"/>
+      <c r="TC24"/>
+      <c r="TD24"/>
+      <c r="TE24"/>
+      <c r="TF24"/>
+      <c r="TG24"/>
+      <c r="TH24"/>
+      <c r="TI24"/>
+      <c r="TJ24"/>
+      <c r="TK24"/>
+      <c r="TL24"/>
+      <c r="TM24"/>
+      <c r="TN24"/>
+      <c r="TO24"/>
+      <c r="TP24"/>
+      <c r="TQ24"/>
+      <c r="TR24"/>
+      <c r="TS24"/>
+      <c r="TT24"/>
+      <c r="TU24"/>
+      <c r="TV24"/>
+      <c r="TW24"/>
+      <c r="TX24"/>
+      <c r="TY24"/>
+      <c r="TZ24"/>
+      <c r="UA24"/>
+      <c r="UB24"/>
+      <c r="UC24"/>
+      <c r="UD24"/>
+      <c r="UE24"/>
+      <c r="UF24"/>
+      <c r="UG24"/>
+      <c r="UH24"/>
+      <c r="UI24"/>
+      <c r="UJ24"/>
+      <c r="UK24"/>
+      <c r="UL24"/>
+      <c r="UM24"/>
+      <c r="UN24"/>
+      <c r="UO24"/>
+      <c r="UP24"/>
+      <c r="UQ24"/>
+      <c r="UR24"/>
+      <c r="US24"/>
+      <c r="UT24"/>
+      <c r="UU24"/>
+      <c r="UV24"/>
+      <c r="UW24"/>
+      <c r="UX24"/>
+      <c r="UY24"/>
+      <c r="UZ24"/>
+      <c r="VA24"/>
+      <c r="VB24"/>
+      <c r="VC24"/>
+      <c r="VD24"/>
+      <c r="VE24"/>
+      <c r="VF24"/>
+      <c r="VG24"/>
+      <c r="VH24"/>
+      <c r="VI24"/>
+      <c r="VJ24"/>
+      <c r="VK24"/>
+      <c r="VL24"/>
+      <c r="VM24"/>
+      <c r="VN24"/>
+      <c r="VO24"/>
+      <c r="VP24"/>
+      <c r="VQ24"/>
+      <c r="VR24"/>
+      <c r="VS24"/>
+      <c r="VT24"/>
+      <c r="VU24"/>
+      <c r="VV24"/>
+      <c r="VW24"/>
+      <c r="VX24"/>
+      <c r="VY24"/>
+      <c r="VZ24"/>
+      <c r="WA24"/>
+      <c r="WB24"/>
+      <c r="WC24"/>
+      <c r="WD24"/>
+      <c r="WE24"/>
+      <c r="WF24"/>
+      <c r="WG24"/>
+      <c r="WH24"/>
+      <c r="WI24"/>
+      <c r="WJ24"/>
+      <c r="WK24"/>
+      <c r="WL24"/>
+      <c r="WM24"/>
+      <c r="WN24"/>
+      <c r="WO24"/>
+      <c r="WP24"/>
+      <c r="WQ24"/>
+      <c r="WR24"/>
+      <c r="WS24"/>
+      <c r="WT24"/>
+      <c r="WU24"/>
+      <c r="WV24"/>
+      <c r="WW24"/>
+      <c r="WX24"/>
+      <c r="WY24"/>
+      <c r="WZ24"/>
+      <c r="XA24"/>
+      <c r="XB24"/>
+      <c r="XC24"/>
+      <c r="XD24"/>
+      <c r="XE24"/>
+      <c r="XF24"/>
+      <c r="XG24"/>
+      <c r="XH24"/>
+      <c r="XI24"/>
+      <c r="XJ24"/>
+      <c r="XK24"/>
+      <c r="XL24"/>
+      <c r="XM24"/>
+      <c r="XN24"/>
+      <c r="XO24"/>
+      <c r="XP24"/>
+      <c r="XQ24"/>
+      <c r="XR24"/>
+      <c r="XS24"/>
+      <c r="XT24"/>
+      <c r="XU24"/>
+      <c r="XV24"/>
+      <c r="XW24"/>
+      <c r="XX24"/>
+      <c r="XY24"/>
+      <c r="XZ24"/>
+      <c r="YA24"/>
+      <c r="YB24"/>
+      <c r="YC24"/>
+      <c r="YD24"/>
+      <c r="YE24"/>
+      <c r="YF24"/>
+      <c r="YG24"/>
+      <c r="YH24"/>
+      <c r="YI24"/>
+      <c r="YJ24"/>
+      <c r="YK24"/>
+      <c r="YL24"/>
+      <c r="YM24"/>
+      <c r="YN24"/>
+      <c r="YO24"/>
+      <c r="YP24"/>
+      <c r="YQ24"/>
+      <c r="YR24"/>
+      <c r="YS24"/>
+      <c r="YT24"/>
+      <c r="YU24"/>
+      <c r="YV24"/>
+      <c r="YW24"/>
+      <c r="YX24"/>
+      <c r="YY24"/>
+      <c r="YZ24"/>
+      <c r="ZA24"/>
+      <c r="ZB24"/>
+      <c r="ZC24"/>
+      <c r="ZD24"/>
+      <c r="ZE24"/>
+      <c r="ZF24"/>
+      <c r="ZG24"/>
+      <c r="ZH24"/>
+      <c r="ZI24"/>
+      <c r="ZJ24"/>
+      <c r="ZK24"/>
+      <c r="ZL24"/>
+      <c r="ZM24"/>
+      <c r="ZN24"/>
+      <c r="ZO24"/>
+      <c r="ZP24"/>
+      <c r="ZQ24"/>
+      <c r="ZR24"/>
+      <c r="ZS24"/>
+      <c r="ZT24"/>
+      <c r="ZU24"/>
+      <c r="ZV24"/>
+      <c r="ZW24"/>
+      <c r="ZX24"/>
+      <c r="ZY24"/>
+      <c r="ZZ24"/>
+      <c r="AAA24"/>
+      <c r="AAB24"/>
+      <c r="AAC24"/>
+      <c r="AAD24"/>
+      <c r="AAE24"/>
+      <c r="AAF24"/>
+      <c r="AAG24"/>
+      <c r="AAH24"/>
+      <c r="AAI24"/>
+      <c r="AAJ24"/>
+      <c r="AAK24"/>
+      <c r="AAL24"/>
+      <c r="AAM24"/>
+      <c r="AAN24"/>
+      <c r="AAO24"/>
+      <c r="AAP24"/>
+      <c r="AAQ24"/>
+      <c r="AAR24"/>
+      <c r="AAS24"/>
+      <c r="AAT24"/>
+      <c r="AAU24"/>
+      <c r="AAV24"/>
+      <c r="AAW24"/>
+      <c r="AAX24"/>
+      <c r="AAY24"/>
+      <c r="AAZ24"/>
+      <c r="ABA24"/>
+      <c r="ABB24"/>
+      <c r="ABC24"/>
+      <c r="ABD24"/>
+      <c r="ABE24"/>
+      <c r="ABF24"/>
+      <c r="ABG24"/>
+      <c r="ABH24"/>
+      <c r="ABI24"/>
+      <c r="ABJ24"/>
+      <c r="ABK24"/>
+      <c r="ABL24"/>
+      <c r="ABM24"/>
+      <c r="ABN24"/>
+      <c r="ABO24"/>
+      <c r="ABP24"/>
+      <c r="ABQ24"/>
+      <c r="ABR24"/>
+      <c r="ABS24"/>
+      <c r="ABT24"/>
+      <c r="ABU24"/>
+      <c r="ABV24"/>
+      <c r="ABW24"/>
+      <c r="ABX24"/>
+      <c r="ABY24"/>
+      <c r="ABZ24"/>
+      <c r="ACA24"/>
+      <c r="ACB24"/>
+      <c r="ACC24"/>
+      <c r="ACD24"/>
+      <c r="ACE24"/>
+      <c r="ACF24"/>
+      <c r="ACG24"/>
+      <c r="ACH24"/>
+      <c r="ACI24"/>
+      <c r="ACJ24"/>
+      <c r="ACK24"/>
+      <c r="ACL24"/>
+      <c r="ACM24"/>
+      <c r="ACN24"/>
+      <c r="ACO24"/>
+      <c r="ACP24"/>
+      <c r="ACQ24"/>
+      <c r="ACR24"/>
+      <c r="ACS24"/>
+      <c r="ACT24"/>
+      <c r="ACU24"/>
+      <c r="ACV24"/>
+      <c r="ACW24"/>
+      <c r="ACX24"/>
+      <c r="ACY24"/>
+      <c r="ACZ24"/>
+      <c r="ADA24"/>
+      <c r="ADB24"/>
+      <c r="ADC24"/>
+      <c r="ADD24"/>
+      <c r="ADE24"/>
+      <c r="ADF24"/>
+      <c r="ADG24"/>
+      <c r="ADH24"/>
+      <c r="ADI24"/>
+      <c r="ADJ24"/>
+      <c r="ADK24"/>
+      <c r="ADL24"/>
+      <c r="ADM24"/>
+      <c r="ADN24"/>
+      <c r="ADO24"/>
+      <c r="ADP24"/>
+      <c r="ADQ24"/>
+      <c r="ADR24"/>
+      <c r="ADS24"/>
+      <c r="ADT24"/>
+      <c r="ADU24"/>
+      <c r="ADV24"/>
+      <c r="ADW24"/>
+      <c r="ADX24"/>
+      <c r="ADY24"/>
+      <c r="ADZ24"/>
+      <c r="AEA24"/>
+      <c r="AEB24"/>
+      <c r="AEC24"/>
+      <c r="AED24"/>
+      <c r="AEE24"/>
+      <c r="AEF24"/>
+      <c r="AEG24"/>
+      <c r="AEH24"/>
+      <c r="AEI24"/>
+      <c r="AEJ24"/>
+      <c r="AEK24"/>
+      <c r="AEL24"/>
+      <c r="AEM24"/>
+      <c r="AEN24"/>
+      <c r="AEO24"/>
+      <c r="AEP24"/>
+      <c r="AEQ24"/>
+      <c r="AER24"/>
+      <c r="AES24"/>
+      <c r="AET24"/>
+      <c r="AEU24"/>
+      <c r="AEV24"/>
+      <c r="AEW24"/>
+      <c r="AEX24"/>
+      <c r="AEY24"/>
+      <c r="AEZ24"/>
+      <c r="AFA24"/>
+      <c r="AFB24"/>
+      <c r="AFC24"/>
+      <c r="AFD24"/>
+      <c r="AFE24"/>
+      <c r="AFF24"/>
+      <c r="AFG24"/>
+      <c r="AFH24"/>
+      <c r="AFI24"/>
+      <c r="AFJ24"/>
+      <c r="AFK24"/>
+      <c r="AFL24"/>
+      <c r="AFM24"/>
+      <c r="AFN24"/>
+      <c r="AFO24"/>
+      <c r="AFP24"/>
+      <c r="AFQ24"/>
+      <c r="AFR24"/>
+      <c r="AFS24"/>
+      <c r="AFT24"/>
+      <c r="AFU24"/>
+      <c r="AFV24"/>
+      <c r="AFW24"/>
+      <c r="AFX24"/>
+      <c r="AFY24"/>
+      <c r="AFZ24"/>
+      <c r="AGA24"/>
+      <c r="AGB24"/>
+      <c r="AGC24"/>
+      <c r="AGD24"/>
+      <c r="AGE24"/>
+      <c r="AGF24"/>
+      <c r="AGG24"/>
+      <c r="AGH24"/>
+      <c r="AGI24"/>
+      <c r="AGJ24"/>
+      <c r="AGK24"/>
+      <c r="AGL24"/>
+      <c r="AGM24"/>
+      <c r="AGN24"/>
+      <c r="AGO24"/>
+      <c r="AGP24"/>
+      <c r="AGQ24"/>
+      <c r="AGR24"/>
+      <c r="AGS24"/>
+      <c r="AGT24"/>
+      <c r="AGU24"/>
+      <c r="AGV24"/>
+      <c r="AGW24"/>
+      <c r="AGX24"/>
+      <c r="AGY24"/>
+      <c r="AGZ24"/>
+      <c r="AHA24"/>
+      <c r="AHB24"/>
+      <c r="AHC24"/>
+      <c r="AHD24"/>
+      <c r="AHE24"/>
+      <c r="AHF24"/>
+      <c r="AHG24"/>
+      <c r="AHH24"/>
+      <c r="AHI24"/>
+      <c r="AHJ24"/>
+      <c r="AHK24"/>
+      <c r="AHL24"/>
+      <c r="AHM24"/>
+      <c r="AHN24"/>
+      <c r="AHO24"/>
+      <c r="AHP24"/>
+      <c r="AHQ24"/>
+      <c r="AHR24"/>
+      <c r="AHS24"/>
+      <c r="AHT24"/>
+      <c r="AHU24"/>
+      <c r="AHV24"/>
+      <c r="AHW24"/>
+      <c r="AHX24"/>
+      <c r="AHY24"/>
+      <c r="AHZ24"/>
+      <c r="AIA24"/>
+      <c r="AIB24"/>
+      <c r="AIC24"/>
+      <c r="AID24"/>
+      <c r="AIE24"/>
+      <c r="AIF24"/>
+      <c r="AIG24"/>
+      <c r="AIH24"/>
+      <c r="AII24"/>
+      <c r="AIJ24"/>
+      <c r="AIK24"/>
+      <c r="AIL24"/>
+      <c r="AIM24"/>
+      <c r="AIN24"/>
+      <c r="AIO24"/>
+      <c r="AIP24"/>
+      <c r="AIQ24"/>
+      <c r="AIR24"/>
+      <c r="AIS24"/>
+      <c r="AIT24"/>
+      <c r="AIU24"/>
+      <c r="AIV24"/>
+      <c r="AIW24"/>
+      <c r="AIX24"/>
+      <c r="AIY24"/>
+      <c r="AIZ24"/>
+      <c r="AJA24"/>
+      <c r="AJB24"/>
+      <c r="AJC24"/>
+      <c r="AJD24"/>
+      <c r="AJE24"/>
+      <c r="AJF24"/>
+      <c r="AJG24"/>
+      <c r="AJH24"/>
+      <c r="AJI24"/>
+      <c r="AJJ24"/>
+      <c r="AJK24"/>
+      <c r="AJL24"/>
+      <c r="AJM24"/>
+      <c r="AJN24"/>
+      <c r="AJO24"/>
+      <c r="AJP24"/>
+      <c r="AJQ24"/>
+      <c r="AJR24"/>
+      <c r="AJS24"/>
+      <c r="AJT24"/>
+      <c r="AJU24"/>
+      <c r="AJV24"/>
+      <c r="AJW24"/>
+      <c r="AJX24"/>
+      <c r="AJY24"/>
+      <c r="AJZ24"/>
+      <c r="AKA24"/>
+      <c r="AKB24"/>
+      <c r="AKC24"/>
+      <c r="AKD24"/>
+      <c r="AKE24"/>
+      <c r="AKF24"/>
+      <c r="AKG24"/>
+      <c r="AKH24"/>
+      <c r="AKI24"/>
+      <c r="AKJ24"/>
+      <c r="AKK24"/>
+      <c r="AKL24"/>
+      <c r="AKM24"/>
+      <c r="AKN24"/>
+      <c r="AKO24"/>
+      <c r="AKP24"/>
+      <c r="AKQ24"/>
+      <c r="AKR24"/>
+      <c r="AKS24"/>
+      <c r="AKT24"/>
+      <c r="AKU24"/>
+      <c r="AKV24"/>
+      <c r="AKW24"/>
+      <c r="AKX24"/>
+      <c r="AKY24"/>
+      <c r="AKZ24"/>
+      <c r="ALA24"/>
+      <c r="ALB24"/>
+      <c r="ALC24"/>
+      <c r="ALD24"/>
+      <c r="ALE24"/>
+      <c r="ALF24"/>
+      <c r="ALG24"/>
+      <c r="ALH24"/>
+      <c r="ALI24"/>
+      <c r="ALJ24"/>
+      <c r="ALK24"/>
+      <c r="ALL24"/>
+      <c r="ALM24"/>
+      <c r="ALN24"/>
+      <c r="ALO24"/>
+      <c r="ALP24"/>
+      <c r="ALQ24"/>
+      <c r="ALR24"/>
+      <c r="ALS24"/>
+      <c r="ALT24"/>
+      <c r="ALU24"/>
+      <c r="ALV24"/>
+      <c r="ALW24"/>
+      <c r="ALX24"/>
+      <c r="ALY24"/>
+      <c r="ALZ24"/>
+      <c r="AMA24"/>
+      <c r="AMB24"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
+      <c r="AME24"/>
+      <c r="AMF24"/>
+      <c r="AMG24"/>
+      <c r="AMH24"/>
+      <c r="AMI24"/>
+      <c r="AMJ24"/>
+    </row>
+    <row r="25" spans="1:1024" ht="15" thickBot="1">
+      <c r="A25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="23"/>
-    </row>
-    <row r="24" spans="1:1024" s="24" customFormat="1" thickBot="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="23"/>
-    </row>
-    <row r="25" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A25" s="31" t="s">
+      <c r="D25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="23"/>
+      <c r="G25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25"/>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BX25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
+      <c r="CF25"/>
+      <c r="CG25"/>
+      <c r="CH25"/>
+      <c r="CI25"/>
+      <c r="CJ25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+      <c r="CP25"/>
+      <c r="CQ25"/>
+      <c r="CR25"/>
+      <c r="CS25"/>
+      <c r="CT25"/>
+      <c r="CU25"/>
+      <c r="CV25"/>
+      <c r="CW25"/>
+      <c r="CX25"/>
+      <c r="CY25"/>
+      <c r="CZ25"/>
+      <c r="DA25"/>
+      <c r="DB25"/>
+      <c r="DC25"/>
+      <c r="DD25"/>
+      <c r="DE25"/>
+      <c r="DF25"/>
+      <c r="DG25"/>
+      <c r="DH25"/>
+      <c r="DI25"/>
+      <c r="DJ25"/>
+      <c r="DK25"/>
+      <c r="DL25"/>
+      <c r="DM25"/>
+      <c r="DN25"/>
+      <c r="DO25"/>
+      <c r="DP25"/>
+      <c r="DQ25"/>
+      <c r="DR25"/>
+      <c r="DS25"/>
+      <c r="DT25"/>
+      <c r="DU25"/>
+      <c r="DV25"/>
+      <c r="DW25"/>
+      <c r="DX25"/>
+      <c r="DY25"/>
+      <c r="DZ25"/>
+      <c r="EA25"/>
+      <c r="EB25"/>
+      <c r="EC25"/>
+      <c r="ED25"/>
+      <c r="EE25"/>
+      <c r="EF25"/>
+      <c r="EG25"/>
+      <c r="EH25"/>
+      <c r="EI25"/>
+      <c r="EJ25"/>
+      <c r="EK25"/>
+      <c r="EL25"/>
+      <c r="EM25"/>
+      <c r="EN25"/>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="EQ25"/>
+      <c r="ER25"/>
+      <c r="ES25"/>
+      <c r="ET25"/>
+      <c r="EU25"/>
+      <c r="EV25"/>
+      <c r="EW25"/>
+      <c r="EX25"/>
+      <c r="EY25"/>
+      <c r="EZ25"/>
+      <c r="FA25"/>
+      <c r="FB25"/>
+      <c r="FC25"/>
+      <c r="FD25"/>
+      <c r="FE25"/>
+      <c r="FF25"/>
+      <c r="FG25"/>
+      <c r="FH25"/>
+      <c r="FI25"/>
+      <c r="FJ25"/>
+      <c r="FK25"/>
+      <c r="FL25"/>
+      <c r="FM25"/>
+      <c r="FN25"/>
+      <c r="FO25"/>
+      <c r="FP25"/>
+      <c r="FQ25"/>
+      <c r="FR25"/>
+      <c r="FS25"/>
+      <c r="FT25"/>
+      <c r="FU25"/>
+      <c r="FV25"/>
+      <c r="FW25"/>
+      <c r="FX25"/>
+      <c r="FY25"/>
+      <c r="FZ25"/>
+      <c r="GA25"/>
+      <c r="GB25"/>
+      <c r="GC25"/>
+      <c r="GD25"/>
+      <c r="GE25"/>
+      <c r="GF25"/>
+      <c r="GG25"/>
+      <c r="GH25"/>
+      <c r="GI25"/>
+      <c r="GJ25"/>
+      <c r="GK25"/>
+      <c r="GL25"/>
+      <c r="GM25"/>
+      <c r="GN25"/>
+      <c r="GO25"/>
+      <c r="GP25"/>
+      <c r="GQ25"/>
+      <c r="GR25"/>
+      <c r="GS25"/>
+      <c r="GT25"/>
+      <c r="GU25"/>
+      <c r="GV25"/>
+      <c r="GW25"/>
+      <c r="GX25"/>
+      <c r="GY25"/>
+      <c r="GZ25"/>
+      <c r="HA25"/>
+      <c r="HB25"/>
+      <c r="HC25"/>
+      <c r="HD25"/>
+      <c r="HE25"/>
+      <c r="HF25"/>
+      <c r="HG25"/>
+      <c r="HH25"/>
+      <c r="HI25"/>
+      <c r="HJ25"/>
+      <c r="HK25"/>
+      <c r="HL25"/>
+      <c r="HM25"/>
+      <c r="HN25"/>
+      <c r="HO25"/>
+      <c r="HP25"/>
+      <c r="HQ25"/>
+      <c r="HR25"/>
+      <c r="HS25"/>
+      <c r="HT25"/>
+      <c r="HU25"/>
+      <c r="HV25"/>
+      <c r="HW25"/>
+      <c r="HX25"/>
+      <c r="HY25"/>
+      <c r="HZ25"/>
+      <c r="IA25"/>
+      <c r="IB25"/>
+      <c r="IC25"/>
+      <c r="ID25"/>
+      <c r="IE25"/>
+      <c r="IF25"/>
+      <c r="IG25"/>
+      <c r="IH25"/>
+      <c r="II25"/>
+      <c r="IJ25"/>
+      <c r="IK25"/>
+      <c r="IL25"/>
+      <c r="IM25"/>
+      <c r="IN25"/>
+      <c r="IO25"/>
+      <c r="IP25"/>
+      <c r="IQ25"/>
+      <c r="IR25"/>
+      <c r="IS25"/>
+      <c r="IT25"/>
+      <c r="IU25"/>
+      <c r="IV25"/>
+      <c r="IW25"/>
+      <c r="IX25"/>
+      <c r="IY25"/>
+      <c r="IZ25"/>
+      <c r="JA25"/>
+      <c r="JB25"/>
+      <c r="JC25"/>
+      <c r="JD25"/>
+      <c r="JE25"/>
+      <c r="JF25"/>
+      <c r="JG25"/>
+      <c r="JH25"/>
+      <c r="JI25"/>
+      <c r="JJ25"/>
+      <c r="JK25"/>
+      <c r="JL25"/>
+      <c r="JM25"/>
+      <c r="JN25"/>
+      <c r="JO25"/>
+      <c r="JP25"/>
+      <c r="JQ25"/>
+      <c r="JR25"/>
+      <c r="JS25"/>
+      <c r="JT25"/>
+      <c r="JU25"/>
+      <c r="JV25"/>
+      <c r="JW25"/>
+      <c r="JX25"/>
+      <c r="JY25"/>
+      <c r="JZ25"/>
+      <c r="KA25"/>
+      <c r="KB25"/>
+      <c r="KC25"/>
+      <c r="KD25"/>
+      <c r="KE25"/>
+      <c r="KF25"/>
+      <c r="KG25"/>
+      <c r="KH25"/>
+      <c r="KI25"/>
+      <c r="KJ25"/>
+      <c r="KK25"/>
+      <c r="KL25"/>
+      <c r="KM25"/>
+      <c r="KN25"/>
+      <c r="KO25"/>
+      <c r="KP25"/>
+      <c r="KQ25"/>
+      <c r="KR25"/>
+      <c r="KS25"/>
+      <c r="KT25"/>
+      <c r="KU25"/>
+      <c r="KV25"/>
+      <c r="KW25"/>
+      <c r="KX25"/>
+      <c r="KY25"/>
+      <c r="KZ25"/>
+      <c r="LA25"/>
+      <c r="LB25"/>
+      <c r="LC25"/>
+      <c r="LD25"/>
+      <c r="LE25"/>
+      <c r="LF25"/>
+      <c r="LG25"/>
+      <c r="LH25"/>
+      <c r="LI25"/>
+      <c r="LJ25"/>
+      <c r="LK25"/>
+      <c r="LL25"/>
+      <c r="LM25"/>
+      <c r="LN25"/>
+      <c r="LO25"/>
+      <c r="LP25"/>
+      <c r="LQ25"/>
+      <c r="LR25"/>
+      <c r="LS25"/>
+      <c r="LT25"/>
+      <c r="LU25"/>
+      <c r="LV25"/>
+      <c r="LW25"/>
+      <c r="LX25"/>
+      <c r="LY25"/>
+      <c r="LZ25"/>
+      <c r="MA25"/>
+      <c r="MB25"/>
+      <c r="MC25"/>
+      <c r="MD25"/>
+      <c r="ME25"/>
+      <c r="MF25"/>
+      <c r="MG25"/>
+      <c r="MH25"/>
+      <c r="MI25"/>
+      <c r="MJ25"/>
+      <c r="MK25"/>
+      <c r="ML25"/>
+      <c r="MM25"/>
+      <c r="MN25"/>
+      <c r="MO25"/>
+      <c r="MP25"/>
+      <c r="MQ25"/>
+      <c r="MR25"/>
+      <c r="MS25"/>
+      <c r="MT25"/>
+      <c r="MU25"/>
+      <c r="MV25"/>
+      <c r="MW25"/>
+      <c r="MX25"/>
+      <c r="MY25"/>
+      <c r="MZ25"/>
+      <c r="NA25"/>
+      <c r="NB25"/>
+      <c r="NC25"/>
+      <c r="ND25"/>
+      <c r="NE25"/>
+      <c r="NF25"/>
+      <c r="NG25"/>
+      <c r="NH25"/>
+      <c r="NI25"/>
+      <c r="NJ25"/>
+      <c r="NK25"/>
+      <c r="NL25"/>
+      <c r="NM25"/>
+      <c r="NN25"/>
+      <c r="NO25"/>
+      <c r="NP25"/>
+      <c r="NQ25"/>
+      <c r="NR25"/>
+      <c r="NS25"/>
+      <c r="NT25"/>
+      <c r="NU25"/>
+      <c r="NV25"/>
+      <c r="NW25"/>
+      <c r="NX25"/>
+      <c r="NY25"/>
+      <c r="NZ25"/>
+      <c r="OA25"/>
+      <c r="OB25"/>
+      <c r="OC25"/>
+      <c r="OD25"/>
+      <c r="OE25"/>
+      <c r="OF25"/>
+      <c r="OG25"/>
+      <c r="OH25"/>
+      <c r="OI25"/>
+      <c r="OJ25"/>
+      <c r="OK25"/>
+      <c r="OL25"/>
+      <c r="OM25"/>
+      <c r="ON25"/>
+      <c r="OO25"/>
+      <c r="OP25"/>
+      <c r="OQ25"/>
+      <c r="OR25"/>
+      <c r="OS25"/>
+      <c r="OT25"/>
+      <c r="OU25"/>
+      <c r="OV25"/>
+      <c r="OW25"/>
+      <c r="OX25"/>
+      <c r="OY25"/>
+      <c r="OZ25"/>
+      <c r="PA25"/>
+      <c r="PB25"/>
+      <c r="PC25"/>
+      <c r="PD25"/>
+      <c r="PE25"/>
+      <c r="PF25"/>
+      <c r="PG25"/>
+      <c r="PH25"/>
+      <c r="PI25"/>
+      <c r="PJ25"/>
+      <c r="PK25"/>
+      <c r="PL25"/>
+      <c r="PM25"/>
+      <c r="PN25"/>
+      <c r="PO25"/>
+      <c r="PP25"/>
+      <c r="PQ25"/>
+      <c r="PR25"/>
+      <c r="PS25"/>
+      <c r="PT25"/>
+      <c r="PU25"/>
+      <c r="PV25"/>
+      <c r="PW25"/>
+      <c r="PX25"/>
+      <c r="PY25"/>
+      <c r="PZ25"/>
+      <c r="QA25"/>
+      <c r="QB25"/>
+      <c r="QC25"/>
+      <c r="QD25"/>
+      <c r="QE25"/>
+      <c r="QF25"/>
+      <c r="QG25"/>
+      <c r="QH25"/>
+      <c r="QI25"/>
+      <c r="QJ25"/>
+      <c r="QK25"/>
+      <c r="QL25"/>
+      <c r="QM25"/>
+      <c r="QN25"/>
+      <c r="QO25"/>
+      <c r="QP25"/>
+      <c r="QQ25"/>
+      <c r="QR25"/>
+      <c r="QS25"/>
+      <c r="QT25"/>
+      <c r="QU25"/>
+      <c r="QV25"/>
+      <c r="QW25"/>
+      <c r="QX25"/>
+      <c r="QY25"/>
+      <c r="QZ25"/>
+      <c r="RA25"/>
+      <c r="RB25"/>
+      <c r="RC25"/>
+      <c r="RD25"/>
+      <c r="RE25"/>
+      <c r="RF25"/>
+      <c r="RG25"/>
+      <c r="RH25"/>
+      <c r="RI25"/>
+      <c r="RJ25"/>
+      <c r="RK25"/>
+      <c r="RL25"/>
+      <c r="RM25"/>
+      <c r="RN25"/>
+      <c r="RO25"/>
+      <c r="RP25"/>
+      <c r="RQ25"/>
+      <c r="RR25"/>
+      <c r="RS25"/>
+      <c r="RT25"/>
+      <c r="RU25"/>
+      <c r="RV25"/>
+      <c r="RW25"/>
+      <c r="RX25"/>
+      <c r="RY25"/>
+      <c r="RZ25"/>
+      <c r="SA25"/>
+      <c r="SB25"/>
+      <c r="SC25"/>
+      <c r="SD25"/>
+      <c r="SE25"/>
+      <c r="SF25"/>
+      <c r="SG25"/>
+      <c r="SH25"/>
+      <c r="SI25"/>
+      <c r="SJ25"/>
+      <c r="SK25"/>
+      <c r="SL25"/>
+      <c r="SM25"/>
+      <c r="SN25"/>
+      <c r="SO25"/>
+      <c r="SP25"/>
+      <c r="SQ25"/>
+      <c r="SR25"/>
+      <c r="SS25"/>
+      <c r="ST25"/>
+      <c r="SU25"/>
+      <c r="SV25"/>
+      <c r="SW25"/>
+      <c r="SX25"/>
+      <c r="SY25"/>
+      <c r="SZ25"/>
+      <c r="TA25"/>
+      <c r="TB25"/>
+      <c r="TC25"/>
+      <c r="TD25"/>
+      <c r="TE25"/>
+      <c r="TF25"/>
+      <c r="TG25"/>
+      <c r="TH25"/>
+      <c r="TI25"/>
+      <c r="TJ25"/>
+      <c r="TK25"/>
+      <c r="TL25"/>
+      <c r="TM25"/>
+      <c r="TN25"/>
+      <c r="TO25"/>
+      <c r="TP25"/>
+      <c r="TQ25"/>
+      <c r="TR25"/>
+      <c r="TS25"/>
+      <c r="TT25"/>
+      <c r="TU25"/>
+      <c r="TV25"/>
+      <c r="TW25"/>
+      <c r="TX25"/>
+      <c r="TY25"/>
+      <c r="TZ25"/>
+      <c r="UA25"/>
+      <c r="UB25"/>
+      <c r="UC25"/>
+      <c r="UD25"/>
+      <c r="UE25"/>
+      <c r="UF25"/>
+      <c r="UG25"/>
+      <c r="UH25"/>
+      <c r="UI25"/>
+      <c r="UJ25"/>
+      <c r="UK25"/>
+      <c r="UL25"/>
+      <c r="UM25"/>
+      <c r="UN25"/>
+      <c r="UO25"/>
+      <c r="UP25"/>
+      <c r="UQ25"/>
+      <c r="UR25"/>
+      <c r="US25"/>
+      <c r="UT25"/>
+      <c r="UU25"/>
+      <c r="UV25"/>
+      <c r="UW25"/>
+      <c r="UX25"/>
+      <c r="UY25"/>
+      <c r="UZ25"/>
+      <c r="VA25"/>
+      <c r="VB25"/>
+      <c r="VC25"/>
+      <c r="VD25"/>
+      <c r="VE25"/>
+      <c r="VF25"/>
+      <c r="VG25"/>
+      <c r="VH25"/>
+      <c r="VI25"/>
+      <c r="VJ25"/>
+      <c r="VK25"/>
+      <c r="VL25"/>
+      <c r="VM25"/>
+      <c r="VN25"/>
+      <c r="VO25"/>
+      <c r="VP25"/>
+      <c r="VQ25"/>
+      <c r="VR25"/>
+      <c r="VS25"/>
+      <c r="VT25"/>
+      <c r="VU25"/>
+      <c r="VV25"/>
+      <c r="VW25"/>
+      <c r="VX25"/>
+      <c r="VY25"/>
+      <c r="VZ25"/>
+      <c r="WA25"/>
+      <c r="WB25"/>
+      <c r="WC25"/>
+      <c r="WD25"/>
+      <c r="WE25"/>
+      <c r="WF25"/>
+      <c r="WG25"/>
+      <c r="WH25"/>
+      <c r="WI25"/>
+      <c r="WJ25"/>
+      <c r="WK25"/>
+      <c r="WL25"/>
+      <c r="WM25"/>
+      <c r="WN25"/>
+      <c r="WO25"/>
+      <c r="WP25"/>
+      <c r="WQ25"/>
+      <c r="WR25"/>
+      <c r="WS25"/>
+      <c r="WT25"/>
+      <c r="WU25"/>
+      <c r="WV25"/>
+      <c r="WW25"/>
+      <c r="WX25"/>
+      <c r="WY25"/>
+      <c r="WZ25"/>
+      <c r="XA25"/>
+      <c r="XB25"/>
+      <c r="XC25"/>
+      <c r="XD25"/>
+      <c r="XE25"/>
+      <c r="XF25"/>
+      <c r="XG25"/>
+      <c r="XH25"/>
+      <c r="XI25"/>
+      <c r="XJ25"/>
+      <c r="XK25"/>
+      <c r="XL25"/>
+      <c r="XM25"/>
+      <c r="XN25"/>
+      <c r="XO25"/>
+      <c r="XP25"/>
+      <c r="XQ25"/>
+      <c r="XR25"/>
+      <c r="XS25"/>
+      <c r="XT25"/>
+      <c r="XU25"/>
+      <c r="XV25"/>
+      <c r="XW25"/>
+      <c r="XX25"/>
+      <c r="XY25"/>
+      <c r="XZ25"/>
+      <c r="YA25"/>
+      <c r="YB25"/>
+      <c r="YC25"/>
+      <c r="YD25"/>
+      <c r="YE25"/>
+      <c r="YF25"/>
+      <c r="YG25"/>
+      <c r="YH25"/>
+      <c r="YI25"/>
+      <c r="YJ25"/>
+      <c r="YK25"/>
+      <c r="YL25"/>
+      <c r="YM25"/>
+      <c r="YN25"/>
+      <c r="YO25"/>
+      <c r="YP25"/>
+      <c r="YQ25"/>
+      <c r="YR25"/>
+      <c r="YS25"/>
+      <c r="YT25"/>
+      <c r="YU25"/>
+      <c r="YV25"/>
+      <c r="YW25"/>
+      <c r="YX25"/>
+      <c r="YY25"/>
+      <c r="YZ25"/>
+      <c r="ZA25"/>
+      <c r="ZB25"/>
+      <c r="ZC25"/>
+      <c r="ZD25"/>
+      <c r="ZE25"/>
+      <c r="ZF25"/>
+      <c r="ZG25"/>
+      <c r="ZH25"/>
+      <c r="ZI25"/>
+      <c r="ZJ25"/>
+      <c r="ZK25"/>
+      <c r="ZL25"/>
+      <c r="ZM25"/>
+      <c r="ZN25"/>
+      <c r="ZO25"/>
+      <c r="ZP25"/>
+      <c r="ZQ25"/>
+      <c r="ZR25"/>
+      <c r="ZS25"/>
+      <c r="ZT25"/>
+      <c r="ZU25"/>
+      <c r="ZV25"/>
+      <c r="ZW25"/>
+      <c r="ZX25"/>
+      <c r="ZY25"/>
+      <c r="ZZ25"/>
+      <c r="AAA25"/>
+      <c r="AAB25"/>
+      <c r="AAC25"/>
+      <c r="AAD25"/>
+      <c r="AAE25"/>
+      <c r="AAF25"/>
+      <c r="AAG25"/>
+      <c r="AAH25"/>
+      <c r="AAI25"/>
+      <c r="AAJ25"/>
+      <c r="AAK25"/>
+      <c r="AAL25"/>
+      <c r="AAM25"/>
+      <c r="AAN25"/>
+      <c r="AAO25"/>
+      <c r="AAP25"/>
+      <c r="AAQ25"/>
+      <c r="AAR25"/>
+      <c r="AAS25"/>
+      <c r="AAT25"/>
+      <c r="AAU25"/>
+      <c r="AAV25"/>
+      <c r="AAW25"/>
+      <c r="AAX25"/>
+      <c r="AAY25"/>
+      <c r="AAZ25"/>
+      <c r="ABA25"/>
+      <c r="ABB25"/>
+      <c r="ABC25"/>
+      <c r="ABD25"/>
+      <c r="ABE25"/>
+      <c r="ABF25"/>
+      <c r="ABG25"/>
+      <c r="ABH25"/>
+      <c r="ABI25"/>
+      <c r="ABJ25"/>
+      <c r="ABK25"/>
+      <c r="ABL25"/>
+      <c r="ABM25"/>
+      <c r="ABN25"/>
+      <c r="ABO25"/>
+      <c r="ABP25"/>
+      <c r="ABQ25"/>
+      <c r="ABR25"/>
+      <c r="ABS25"/>
+      <c r="ABT25"/>
+      <c r="ABU25"/>
+      <c r="ABV25"/>
+      <c r="ABW25"/>
+      <c r="ABX25"/>
+      <c r="ABY25"/>
+      <c r="ABZ25"/>
+      <c r="ACA25"/>
+      <c r="ACB25"/>
+      <c r="ACC25"/>
+      <c r="ACD25"/>
+      <c r="ACE25"/>
+      <c r="ACF25"/>
+      <c r="ACG25"/>
+      <c r="ACH25"/>
+      <c r="ACI25"/>
+      <c r="ACJ25"/>
+      <c r="ACK25"/>
+      <c r="ACL25"/>
+      <c r="ACM25"/>
+      <c r="ACN25"/>
+      <c r="ACO25"/>
+      <c r="ACP25"/>
+      <c r="ACQ25"/>
+      <c r="ACR25"/>
+      <c r="ACS25"/>
+      <c r="ACT25"/>
+      <c r="ACU25"/>
+      <c r="ACV25"/>
+      <c r="ACW25"/>
+      <c r="ACX25"/>
+      <c r="ACY25"/>
+      <c r="ACZ25"/>
+      <c r="ADA25"/>
+      <c r="ADB25"/>
+      <c r="ADC25"/>
+      <c r="ADD25"/>
+      <c r="ADE25"/>
+      <c r="ADF25"/>
+      <c r="ADG25"/>
+      <c r="ADH25"/>
+      <c r="ADI25"/>
+      <c r="ADJ25"/>
+      <c r="ADK25"/>
+      <c r="ADL25"/>
+      <c r="ADM25"/>
+      <c r="ADN25"/>
+      <c r="ADO25"/>
+      <c r="ADP25"/>
+      <c r="ADQ25"/>
+      <c r="ADR25"/>
+      <c r="ADS25"/>
+      <c r="ADT25"/>
+      <c r="ADU25"/>
+      <c r="ADV25"/>
+      <c r="ADW25"/>
+      <c r="ADX25"/>
+      <c r="ADY25"/>
+      <c r="ADZ25"/>
+      <c r="AEA25"/>
+      <c r="AEB25"/>
+      <c r="AEC25"/>
+      <c r="AED25"/>
+      <c r="AEE25"/>
+      <c r="AEF25"/>
+      <c r="AEG25"/>
+      <c r="AEH25"/>
+      <c r="AEI25"/>
+      <c r="AEJ25"/>
+      <c r="AEK25"/>
+      <c r="AEL25"/>
+      <c r="AEM25"/>
+      <c r="AEN25"/>
+      <c r="AEO25"/>
+      <c r="AEP25"/>
+      <c r="AEQ25"/>
+      <c r="AER25"/>
+      <c r="AES25"/>
+      <c r="AET25"/>
+      <c r="AEU25"/>
+      <c r="AEV25"/>
+      <c r="AEW25"/>
+      <c r="AEX25"/>
+      <c r="AEY25"/>
+      <c r="AEZ25"/>
+      <c r="AFA25"/>
+      <c r="AFB25"/>
+      <c r="AFC25"/>
+      <c r="AFD25"/>
+      <c r="AFE25"/>
+      <c r="AFF25"/>
+      <c r="AFG25"/>
+      <c r="AFH25"/>
+      <c r="AFI25"/>
+      <c r="AFJ25"/>
+      <c r="AFK25"/>
+      <c r="AFL25"/>
+      <c r="AFM25"/>
+      <c r="AFN25"/>
+      <c r="AFO25"/>
+      <c r="AFP25"/>
+      <c r="AFQ25"/>
+      <c r="AFR25"/>
+      <c r="AFS25"/>
+      <c r="AFT25"/>
+      <c r="AFU25"/>
+      <c r="AFV25"/>
+      <c r="AFW25"/>
+      <c r="AFX25"/>
+      <c r="AFY25"/>
+      <c r="AFZ25"/>
+      <c r="AGA25"/>
+      <c r="AGB25"/>
+      <c r="AGC25"/>
+      <c r="AGD25"/>
+      <c r="AGE25"/>
+      <c r="AGF25"/>
+      <c r="AGG25"/>
+      <c r="AGH25"/>
+      <c r="AGI25"/>
+      <c r="AGJ25"/>
+      <c r="AGK25"/>
+      <c r="AGL25"/>
+      <c r="AGM25"/>
+      <c r="AGN25"/>
+      <c r="AGO25"/>
+      <c r="AGP25"/>
+      <c r="AGQ25"/>
+      <c r="AGR25"/>
+      <c r="AGS25"/>
+      <c r="AGT25"/>
+      <c r="AGU25"/>
+      <c r="AGV25"/>
+      <c r="AGW25"/>
+      <c r="AGX25"/>
+      <c r="AGY25"/>
+      <c r="AGZ25"/>
+      <c r="AHA25"/>
+      <c r="AHB25"/>
+      <c r="AHC25"/>
+      <c r="AHD25"/>
+      <c r="AHE25"/>
+      <c r="AHF25"/>
+      <c r="AHG25"/>
+      <c r="AHH25"/>
+      <c r="AHI25"/>
+      <c r="AHJ25"/>
+      <c r="AHK25"/>
+      <c r="AHL25"/>
+      <c r="AHM25"/>
+      <c r="AHN25"/>
+      <c r="AHO25"/>
+      <c r="AHP25"/>
+      <c r="AHQ25"/>
+      <c r="AHR25"/>
+      <c r="AHS25"/>
+      <c r="AHT25"/>
+      <c r="AHU25"/>
+      <c r="AHV25"/>
+      <c r="AHW25"/>
+      <c r="AHX25"/>
+      <c r="AHY25"/>
+      <c r="AHZ25"/>
+      <c r="AIA25"/>
+      <c r="AIB25"/>
+      <c r="AIC25"/>
+      <c r="AID25"/>
+      <c r="AIE25"/>
+      <c r="AIF25"/>
+      <c r="AIG25"/>
+      <c r="AIH25"/>
+      <c r="AII25"/>
+      <c r="AIJ25"/>
+      <c r="AIK25"/>
+      <c r="AIL25"/>
+      <c r="AIM25"/>
+      <c r="AIN25"/>
+      <c r="AIO25"/>
+      <c r="AIP25"/>
+      <c r="AIQ25"/>
+      <c r="AIR25"/>
+      <c r="AIS25"/>
+      <c r="AIT25"/>
+      <c r="AIU25"/>
+      <c r="AIV25"/>
+      <c r="AIW25"/>
+      <c r="AIX25"/>
+      <c r="AIY25"/>
+      <c r="AIZ25"/>
+      <c r="AJA25"/>
+      <c r="AJB25"/>
+      <c r="AJC25"/>
+      <c r="AJD25"/>
+      <c r="AJE25"/>
+      <c r="AJF25"/>
+      <c r="AJG25"/>
+      <c r="AJH25"/>
+      <c r="AJI25"/>
+      <c r="AJJ25"/>
+      <c r="AJK25"/>
+      <c r="AJL25"/>
+      <c r="AJM25"/>
+      <c r="AJN25"/>
+      <c r="AJO25"/>
+      <c r="AJP25"/>
+      <c r="AJQ25"/>
+      <c r="AJR25"/>
+      <c r="AJS25"/>
+      <c r="AJT25"/>
+      <c r="AJU25"/>
+      <c r="AJV25"/>
+      <c r="AJW25"/>
+      <c r="AJX25"/>
+      <c r="AJY25"/>
+      <c r="AJZ25"/>
+      <c r="AKA25"/>
+      <c r="AKB25"/>
+      <c r="AKC25"/>
+      <c r="AKD25"/>
+      <c r="AKE25"/>
+      <c r="AKF25"/>
+      <c r="AKG25"/>
+      <c r="AKH25"/>
+      <c r="AKI25"/>
+      <c r="AKJ25"/>
+      <c r="AKK25"/>
+      <c r="AKL25"/>
+      <c r="AKM25"/>
+      <c r="AKN25"/>
+      <c r="AKO25"/>
+      <c r="AKP25"/>
+      <c r="AKQ25"/>
+      <c r="AKR25"/>
+      <c r="AKS25"/>
+      <c r="AKT25"/>
+      <c r="AKU25"/>
+      <c r="AKV25"/>
+      <c r="AKW25"/>
+      <c r="AKX25"/>
+      <c r="AKY25"/>
+      <c r="AKZ25"/>
+      <c r="ALA25"/>
+      <c r="ALB25"/>
+      <c r="ALC25"/>
+      <c r="ALD25"/>
+      <c r="ALE25"/>
+      <c r="ALF25"/>
+      <c r="ALG25"/>
+      <c r="ALH25"/>
+      <c r="ALI25"/>
+      <c r="ALJ25"/>
+      <c r="ALK25"/>
+      <c r="ALL25"/>
+      <c r="ALM25"/>
+      <c r="ALN25"/>
+      <c r="ALO25"/>
+      <c r="ALP25"/>
+      <c r="ALQ25"/>
+      <c r="ALR25"/>
+      <c r="ALS25"/>
+      <c r="ALT25"/>
+      <c r="ALU25"/>
+      <c r="ALV25"/>
+      <c r="ALW25"/>
+      <c r="ALX25"/>
+      <c r="ALY25"/>
+      <c r="ALZ25"/>
+      <c r="AMA25"/>
+      <c r="AMB25"/>
+      <c r="AMC25"/>
+      <c r="AMD25"/>
+      <c r="AME25"/>
+      <c r="AMF25"/>
+      <c r="AMG25"/>
+      <c r="AMH25"/>
+      <c r="AMI25"/>
+      <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="17"/>
+    <row r="26" spans="1:1024" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A26" s="27">
+        <v>14</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="26">
+        <v>42533</v>
+      </c>
+      <c r="F26" s="26">
+        <v>42533</v>
+      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="23"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
     </row>
-    <row r="27" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A27" s="30" t="s">
-        <v>13</v>
+    <row r="27" spans="1:1024" ht="15" thickBot="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:1024" ht="15" thickBot="1">
+      <c r="A28" s="20" t="s">
+        <v>3</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
-    <row r="28" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="23"/>
+    <row r="29" spans="1:1024" ht="15" thickBot="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
-    <row r="29" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="23"/>
+    <row r="30" spans="1:1024" ht="15" thickBot="1">
+      <c r="A30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
-    <row r="30" spans="1:1024" s="24" customFormat="1" ht="13.5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="23"/>
+    <row r="31" spans="1:1024" ht="15" thickBot="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="28"/>
+    <row r="32" spans="1:1024" ht="15" thickBot="1">
+      <c r="A32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A11:F11"/>
+  <mergeCells count="9">
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
+++ b/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
   <si>
     <t>SPRINT 3:</t>
   </si>
@@ -140,12 +140,78 @@
   <si>
     <t>2 hora</t>
   </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Incrementar diagrama de classe</t>
+  </si>
+  <si>
+    <t>Alterar classe loginBean</t>
+  </si>
+  <si>
+    <t>Criar página esqueciMinhaSenha</t>
+  </si>
+  <si>
+    <t>Integração + Testes</t>
+  </si>
+  <si>
+    <t>criar classe CSS</t>
+  </si>
+  <si>
+    <t>criar metodo avaliarProfissional</t>
+  </si>
+  <si>
+    <t>Integração + testes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cauê </t>
+  </si>
+  <si>
+    <t>30 minutos</t>
+  </si>
+  <si>
+    <t>1 Hora</t>
+  </si>
+  <si>
+    <t>3 Horas</t>
+  </si>
+  <si>
+    <t>Criar pagina com localização por area</t>
+  </si>
+  <si>
+    <t>implementar api google por distancia</t>
+  </si>
+  <si>
+    <t>integração, testes</t>
+  </si>
+  <si>
+    <t>Estória de Usuário: CH:9 ID:42 – Mobile (Igor Bruno)</t>
+  </si>
+  <si>
+    <t>Passar todas as paginas para prime faces mobile</t>
+  </si>
+  <si>
+    <t>Igor e Bruno</t>
+  </si>
+  <si>
+    <t>20 horas</t>
+  </si>
+  <si>
+    <t>IGOR</t>
+  </si>
+  <si>
+    <t>4 horas</t>
+  </si>
+  <si>
+    <t>Integração e testes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,6 +313,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -379,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -425,12 +498,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,6 +554,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK32"/>
+  <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3989,12 +4085,12 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024" ht="15" thickBot="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -5015,14 +5111,14 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" ht="15" thickBot="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -6043,28 +6139,28 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" ht="15" thickBot="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="8"/>
@@ -6093,17 +6189,17 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
       <c r="AT6"/>
       <c r="AU6"/>
       <c r="AV6"/>
@@ -7085,22 +7181,22 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024" ht="15" thickBot="1">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>42524</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <v>42524</v>
       </c>
       <c r="G7" s="7"/>
@@ -7131,17 +7227,17 @@
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
       <c r="AT7"/>
       <c r="AU7"/>
       <c r="AV7"/>
@@ -8123,22 +8219,22 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>42525</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <v>42525</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -8171,17 +8267,17 @@
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
       <c r="AT8"/>
       <c r="AU8"/>
       <c r="AV8"/>
@@ -9163,22 +9259,22 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" ht="15" thickBot="1">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>42527</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <v>42527</v>
       </c>
       <c r="G9" s="7"/>
@@ -9209,17 +9305,17 @@
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
       <c r="AT9"/>
       <c r="AU9"/>
       <c r="AV9"/>
@@ -10201,22 +10297,22 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>42527</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>42527</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -10249,17 +10345,17 @@
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
       <c r="AT10"/>
       <c r="AU10"/>
       <c r="AV10"/>
@@ -11241,22 +11337,22 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="15" thickBot="1">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>42528</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <v>42528</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -11289,17 +11385,17 @@
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
       <c r="AT11"/>
       <c r="AU11"/>
       <c r="AV11"/>
@@ -12281,25 +12377,25 @@
       <c r="AMJ11"/>
     </row>
     <row r="12" spans="1:1024" s="17" customFormat="1" ht="15" thickBot="1">
-      <c r="A12" s="31">
+      <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>42528</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>42528</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="18"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -12321,25 +12417,25 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:1024" s="17" customFormat="1" ht="15" thickBot="1">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>42528</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>42528</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="18"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -12361,8 +12457,8 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="1:1024" s="17" customFormat="1" ht="15" thickBot="1">
-      <c r="A14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="18"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -12384,14 +12480,14 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -13412,28 +13508,28 @@
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" s="11" customFormat="1" thickBot="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="10"/>
@@ -13456,22 +13552,22 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:1024" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>8</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>42530</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>42530</v>
       </c>
       <c r="G17" s="7"/>
@@ -14494,22 +14590,22 @@
       <c r="AMJ17"/>
     </row>
     <row r="18" spans="1:1024" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>9</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>42530</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>42530</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -15534,22 +15630,22 @@
       <c r="AMJ18"/>
     </row>
     <row r="19" spans="1:1024" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="27">
+      <c r="A19" s="25">
         <v>10</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>42530</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>42531</v>
       </c>
       <c r="G19" s="7"/>
@@ -16572,22 +16668,22 @@
       <c r="AMJ19"/>
     </row>
     <row r="20" spans="1:1024" ht="26.25" thickBot="1">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>11</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>42532</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <v>42532</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -17612,7 +17708,7 @@
       <c r="AMJ20"/>
     </row>
     <row r="21" spans="1:1024" ht="15" thickBot="1">
-      <c r="A21" s="27">
+      <c r="A21" s="25">
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -17624,10 +17720,10 @@
       <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="34">
         <v>42532</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <v>42532</v>
       </c>
       <c r="G21" s="7"/>
@@ -18650,22 +18746,22 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1024" ht="15" thickBot="1">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>13</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>42532</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="24">
         <v>42532</v>
       </c>
       <c r="G22" s="7"/>
@@ -20709,14 +20805,14 @@
       <c r="AMJ23"/>
     </row>
     <row r="24" spans="1:1024" ht="15" thickBot="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="13"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -21737,28 +21833,28 @@
       <c r="AMJ24"/>
     </row>
     <row r="25" spans="1:1024" ht="15" thickBot="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="8"/>
@@ -22779,22 +22875,22 @@
       <c r="AMJ25"/>
     </row>
     <row r="26" spans="1:1024" s="16" customFormat="1" ht="15" thickBot="1">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>14</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>42533</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>42533</v>
       </c>
       <c r="G26" s="7"/>
@@ -22819,72 +22915,566 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:1024" ht="15" thickBot="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:1024" ht="15" thickBot="1">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:1024" ht="15" thickBot="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:1024" ht="15" thickBot="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="23">
+        <v>15</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="24">
+        <v>42524</v>
+      </c>
+      <c r="F30" s="45">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1024" ht="15" thickBot="1">
+      <c r="A31" s="23">
+        <v>16</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="24">
+        <v>42524</v>
+      </c>
+      <c r="F31" s="45">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1024" ht="15" thickBot="1">
+      <c r="A32" s="43">
+        <v>17</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="24">
+        <v>42524</v>
+      </c>
+      <c r="F32" s="45">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="43">
+        <v>18</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="45">
+        <v>42527</v>
+      </c>
+      <c r="F33" s="45">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1"/>
+    <row r="35" spans="1:8" ht="15" thickBot="1">
+      <c r="A35" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
     </row>
-    <row r="31" spans="1:1024" ht="15" thickBot="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+    <row r="36" spans="1:8" ht="15" thickBot="1">
+      <c r="A36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="32" spans="1:1024" ht="15" thickBot="1">
-      <c r="A32" s="19" t="s">
+    <row r="37" spans="1:8" ht="15" thickBot="1">
+      <c r="A37" s="32">
+        <v>19</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="44">
+        <v>42527</v>
+      </c>
+      <c r="F37" s="44">
+        <v>42533</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1">
+      <c r="A38" s="32">
+        <v>20</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="44">
+        <v>42527</v>
+      </c>
+      <c r="F38" s="44">
+        <v>42533</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1">
+      <c r="A39" s="32">
+        <v>21</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="44">
+        <v>42529</v>
+      </c>
+      <c r="F39" s="44">
+        <v>42533</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1">
+      <c r="A42" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1">
+      <c r="A43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="47">
+        <v>42435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1"/>
+    <row r="48" spans="1:8" ht="15" thickBot="1">
+      <c r="A48" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49" spans="1:1025" ht="15" thickBot="1">
+      <c r="A49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1025">
+      <c r="A50" s="1">
+        <v>25</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="47">
+        <v>42527</v>
+      </c>
+      <c r="F50" s="47">
+        <v>42541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1025">
+      <c r="A51" s="1">
+        <v>26</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="47">
+        <v>42527</v>
+      </c>
+      <c r="F51" s="47">
+        <v>42541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1025">
+      <c r="D53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="AMD53"/>
+      <c r="AME53"/>
+      <c r="AMF53"/>
+      <c r="AMG53"/>
+      <c r="AMH53"/>
+      <c r="AMI53"/>
+      <c r="AMJ53"/>
+      <c r="AMK53"/>
+    </row>
+    <row r="54" spans="1:1025">
+      <c r="D54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="AMD54"/>
+      <c r="AME54"/>
+      <c r="AMF54"/>
+      <c r="AMG54"/>
+      <c r="AMH54"/>
+      <c r="AMI54"/>
+      <c r="AMJ54"/>
+      <c r="AMK54"/>
+    </row>
+    <row r="55" spans="1:1025">
+      <c r="D55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="AMD55"/>
+      <c r="AME55"/>
+      <c r="AMF55"/>
+      <c r="AMG55"/>
+      <c r="AMH55"/>
+      <c r="AMI55"/>
+      <c r="AMJ55"/>
+      <c r="AMK55"/>
+    </row>
+    <row r="56" spans="1:1025">
+      <c r="D56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="AMD56"/>
+      <c r="AME56"/>
+      <c r="AMF56"/>
+      <c r="AMG56"/>
+      <c r="AMH56"/>
+      <c r="AMI56"/>
+      <c r="AMJ56"/>
+      <c r="AMK56"/>
+    </row>
+    <row r="57" spans="1:1025">
+      <c r="D57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="AMD57"/>
+      <c r="AME57"/>
+      <c r="AMF57"/>
+      <c r="AMG57"/>
+      <c r="AMH57"/>
+      <c r="AMI57"/>
+      <c r="AMJ57"/>
+      <c r="AMK57"/>
+    </row>
+    <row r="58" spans="1:1025">
+      <c r="D58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="AMD58"/>
+      <c r="AME58"/>
+      <c r="AMF58"/>
+      <c r="AMG58"/>
+      <c r="AMH58"/>
+      <c r="AMI58"/>
+      <c r="AMJ58"/>
+      <c r="AMK58"/>
+    </row>
+    <row r="59" spans="1:1025">
+      <c r="D59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="AMD59"/>
+      <c r="AME59"/>
+      <c r="AMF59"/>
+      <c r="AMG59"/>
+      <c r="AMH59"/>
+      <c r="AMI59"/>
+      <c r="AMJ59"/>
+      <c r="AMK59"/>
+    </row>
+    <row r="60" spans="1:1025">
+      <c r="D60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="AMD60"/>
+      <c r="AME60"/>
+      <c r="AMF60"/>
+      <c r="AMG60"/>
+      <c r="AMH60"/>
+      <c r="AMI60"/>
+      <c r="AMJ60"/>
+      <c r="AMK60"/>
+    </row>
+    <row r="61" spans="1:1025">
+      <c r="D61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="AMD61"/>
+      <c r="AME61"/>
+      <c r="AMF61"/>
+      <c r="AMG61"/>
+      <c r="AMH61"/>
+      <c r="AMI61"/>
+      <c r="AMJ61"/>
+      <c r="AMK61"/>
+    </row>
+    <row r="62" spans="1:1025">
+      <c r="D62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="AMD62"/>
+      <c r="AME62"/>
+      <c r="AMF62"/>
+      <c r="AMG62"/>
+      <c r="AMH62"/>
+      <c r="AMI62"/>
+      <c r="AMJ62"/>
+      <c r="AMK62"/>
+    </row>
+    <row r="63" spans="1:1025">
+      <c r="D63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="AMD63"/>
+      <c r="AME63"/>
+      <c r="AMF63"/>
+      <c r="AMG63"/>
+      <c r="AMH63"/>
+      <c r="AMI63"/>
+      <c r="AMJ63"/>
+      <c r="AMK63"/>
+    </row>
+    <row r="64" spans="1:1025">
+      <c r="D64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="AMD64"/>
+      <c r="AME64"/>
+      <c r="AMF64"/>
+      <c r="AMG64"/>
+      <c r="AMH64"/>
+      <c r="AMI64"/>
+      <c r="AMJ64"/>
+      <c r="AMK64"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
+  <mergeCells count="8">
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A28:F28"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
+++ b/documentos/outros-documentos/Sprint-4/planejamento-sprint4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="63">
   <si>
     <t>SPRINT 3:</t>
   </si>
@@ -90,16 +90,7 @@
     <t>Criar método listarPublicacoes(int IdUsuarioQuePublicou) no MuralDAO</t>
   </si>
   <si>
-    <t>Listar apenas as publicações do usuário logado</t>
-  </si>
-  <si>
     <t>Criar tela detalhesPublicacao.xhtml</t>
-  </si>
-  <si>
-    <t>Ao lado de cada publicação um botão para os detalhes da publicacao</t>
-  </si>
-  <si>
-    <t>Com botão de Voltar</t>
   </si>
   <si>
     <t>Incrementar diagrama de  classes</t>
@@ -117,9 +108,6 @@
     <t>Criar botão Excluir</t>
   </si>
   <si>
-    <t>Para cada publicacao</t>
-  </si>
-  <si>
     <t xml:space="preserve">20 min </t>
   </si>
   <si>
@@ -130,9 +118,6 @@
   </si>
   <si>
     <t>Criar método excluirPublicacao(int IdUsuarioQuePublicou) no MuralDAO</t>
-  </si>
-  <si>
-    <t>Excluir todas as chaves estrangeiras</t>
   </si>
   <si>
     <t>ESTUDAR</t>
@@ -206,12 +191,30 @@
   <si>
     <t>Integração e testes</t>
   </si>
+  <si>
+    <t>(CONCLUÍDO)</t>
+  </si>
+  <si>
+    <t>(CONCLUÍDO)Ao lado de cada publicação um botão para os detalhes da publicacao</t>
+  </si>
+  <si>
+    <t>(CONCLUÍDO)Listar apenas as publicações do usuário logado</t>
+  </si>
+  <si>
+    <t>(CONCLUÍDO)Com botão de Voltar</t>
+  </si>
+  <si>
+    <t>(CONCLUÍDO)Para cada publicacao</t>
+  </si>
+  <si>
+    <t>(CONCLUÍDO)Excluir todas as chaves estrangeiras</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -320,6 +323,13 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -452,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,12 +564,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,6 +587,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4085,12 +4098,12 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024" ht="15" thickBot="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -5111,14 +5124,14 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" ht="15" thickBot="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7185,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>17</v>
@@ -7199,7 +7212,9 @@
       <c r="F7" s="24">
         <v>42524</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -8222,7 +8237,7 @@
       <c r="A8" s="26">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -8238,7 +8253,7 @@
         <v>42525</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -9277,7 +9292,9 @@
       <c r="F9" s="24">
         <v>42527</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -10316,7 +10333,7 @@
         <v>42527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -11336,12 +11353,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" ht="15" thickBot="1">
+    <row r="11" spans="1:1024" ht="26.25" thickBot="1">
       <c r="A11" s="25">
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>17</v>
@@ -11356,7 +11373,7 @@
         <v>42528</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -12381,13 +12398,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="33">
         <v>42528</v>
@@ -12395,7 +12412,9 @@
       <c r="F12" s="33">
         <v>42528</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="48" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -12421,13 +12440,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="31">
         <v>42528</v>
@@ -12435,7 +12454,9 @@
       <c r="F13" s="31">
         <v>42528</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="48" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="18"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -12480,14 +12501,14 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -13556,7 +13577,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>17</v>
@@ -13570,7 +13591,9 @@
       <c r="F17" s="24">
         <v>42530</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -14594,13 +14617,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E18" s="24">
         <v>42530</v>
@@ -14609,7 +14632,7 @@
         <v>42530</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -15634,13 +15657,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="24">
         <v>42530</v>
@@ -15648,7 +15671,9 @@
       <c r="F19" s="24">
         <v>42531</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -16672,7 +16697,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>17</v>
@@ -16687,10 +16712,10 @@
         <v>42532</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -17712,13 +17737,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E21" s="34">
         <v>42532</v>
@@ -17726,7 +17751,9 @@
       <c r="F21" s="34">
         <v>42532</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -18750,7 +18777,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>17</v>
@@ -18764,7 +18791,9 @@
       <c r="F22" s="24">
         <v>42532</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -20805,14 +20834,14 @@
       <c r="AMJ23"/>
     </row>
     <row r="24" spans="1:1024" ht="15" thickBot="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="13"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -22879,13 +22908,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E26" s="24">
         <v>42533</v>
@@ -22925,14 +22954,14 @@
       <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:1024" ht="15" thickBot="1">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:1024" ht="15" thickBot="1">
       <c r="A29" s="19" t="s">
@@ -22965,10 +22994,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>18</v>
@@ -22976,7 +23005,7 @@
       <c r="E30" s="24">
         <v>42524</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="43">
         <v>42527</v>
       </c>
     </row>
@@ -22985,10 +23014,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>18</v>
@@ -22996,60 +23025,60 @@
       <c r="E31" s="24">
         <v>42524</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="43">
         <v>42527</v>
       </c>
     </row>
     <row r="32" spans="1:1024" ht="15" thickBot="1">
-      <c r="A32" s="43">
+      <c r="A32" s="41">
         <v>17</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>43</v>
+      <c r="B32" s="41" t="s">
+        <v>38</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>40</v>
+      <c r="C32" s="41" t="s">
+        <v>35</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="24">
         <v>42524</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="43">
         <v>42527</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="43">
+      <c r="A33" s="41">
         <v>18</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>44</v>
+      <c r="B33" s="41" t="s">
+        <v>39</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>40</v>
+      <c r="C33" s="41" t="s">
+        <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="43">
         <v>42527</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="43">
         <v>42527</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1"/>
     <row r="35" spans="1:8" ht="15" thickBot="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="19" t="s">
@@ -23081,97 +23110,97 @@
       <c r="A37" s="32">
         <v>19</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>45</v>
+      <c r="B37" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="42">
         <v>42527</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="42">
         <v>42533</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="32">
         <v>20</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>46</v>
+      <c r="B38" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="42">
         <v>42527</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="42">
         <v>42533</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1">
       <c r="A39" s="32">
         <v>21</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>47</v>
+      <c r="B39" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="42">
         <v>42529</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="42">
         <v>42533</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1">
       <c r="A43" s="19" t="s">
@@ -23204,15 +23233,15 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="45">
         <v>42435</v>
       </c>
     </row>
@@ -23221,13 +23250,13 @@
         <v>23</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -23235,25 +23264,25 @@
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1"/>
     <row r="48" spans="1:8" ht="15" thickBot="1">
-      <c r="A48" s="37" t="s">
-        <v>55</v>
+      <c r="A48" s="47" t="s">
+        <v>50</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:1025" ht="15" thickBot="1">
       <c r="A49" s="19" t="s">
@@ -23285,19 +23314,19 @@
       <c r="A50" s="1">
         <v>25</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>56</v>
+      <c r="B50" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E50" s="45">
         <v>42527</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="45">
         <v>42541</v>
       </c>
     </row>
@@ -23305,19 +23334,19 @@
       <c r="A51" s="1">
         <v>26</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>61</v>
+      <c r="B51" s="44" t="s">
+        <v>56</v>
       </c>
-      <c r="C51" s="46" t="s">
-        <v>57</v>
+      <c r="C51" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
-      <c r="E51" s="47">
+      <c r="E51" s="45">
         <v>42527</v>
       </c>
-      <c r="F51" s="47">
+      <c r="F51" s="45">
         <v>42541</v>
       </c>
     </row>
